--- a/filtered_excel/bcart_products_atago.xlsx
+++ b/filtered_excel/bcart_products_atago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,16 +528,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 火入れ</t>
+          <t>紀土 KID 純米大吟醸 Sparkling</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 火入れ 1.8L</t>
+          <t>紀土 KID 純米大吟醸 Sparkling 720ml</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10415</v>
+        <v>11418</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -566,12 +566,11 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3600</v>
+        <v>1900</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>愛山を造らせたら
-右に出るもの無し！</t>
+          <t>世界に広がる紀土の”泡”</t>
         </is>
       </c>
       <c r="L2" t="b">
@@ -590,34 +589,41 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">「愛山」を造らせたら右に出る者無し！
-こんな美味しい「愛山」を飲んだのは初めてです。「愛山」の特徴でもある酸味を低く抑え、しかも綺麗にかつ上品に、味わいの中に織り込まれた絶品中の絶品です。
-そして更にすごいのは、55％精米の「愛山」でこの価格！！
-他では考えられないほど、コストパフォーマンスが高い！！
-スゴイ！・旨い！・安い！の三拍子が揃った 味わいは、フルーティーで、「パイナップル」のような風味が感じられます。
-</t>
+          <t>国内産の山田錦を50％まで精米して醸した純米大吟醸のスパークリングです。
+見た目もシャンパンボトルのようで、世界に羽ばたく
+「紀土」を象徴した様なデザインが描かれています。
+スパークリングの華やかさや甘味はもちろん、
+泡のフレッシュ感も合い重なって食中酒としては必需品になること間違いなし！！
+瓶内二次発酵で、酵母が造る自然な泡をお楽しみください☆
+※注意※ 開栓時における注意事項を肩ラベルと裏ラベルに記載しております。
+要冷蔵の商品でもあるため、特に開栓前は瓶をしっかりと冷やして、
+決して開栓前には振らないでください。中身が噴き出す恐れがありますので大変危険です。</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10415.jpg</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/11418.jpg</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>純米大吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 火入れ</t>
+          <t>紀土 KID 純米大吟醸 Sparkling</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 火入れ 720ml</t>
+          <t>紀土 KID 純米大吟醸 Sparkling 360ml</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10508</v>
+        <v>11699</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -626,7 +632,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -646,12 +652,11 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>愛山を造らせたら
-右に出るもの無し！</t>
+          <t>世界に広がる紀土の”泡”</t>
         </is>
       </c>
       <c r="L3" t="b">
@@ -670,34 +675,41 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve">「愛山」を造らせたら右に出る者無し！
-こんな美味しい「愛山」を飲んだのは初めてです。「愛山」の特徴でもある酸味を低く抑え、しかも綺麗にかつ上品に、味わいの中に織り込まれた絶品中の絶品です。
-そして更にすごいのは、55％精米の「愛山」でこの価格！！
-他では考えられないほど、コストパフォーマンスが高い！！
-スゴイ！・旨い！・安い！の三拍子が揃った 味わいは、フルーティーで、「パイナップル」のような風味が感じられます。
-</t>
+          <t>国内産の山田錦を50％まで精米して醸した純米大吟醸のスパークリングです。
+見た目もシャンパンボトルのようで、世界に羽ばたく
+「紀土」を象徴した様なデザインが描かれています。
+スパークリングの華やかさや甘味はもちろん、
+泡のフレッシュ感も合い重なって食中酒としては必需品になること間違いなし！！
+瓶内二次発酵で、酵母が造る自然な泡をお楽しみください☆
+※注意※ 開栓時における注意事項を肩ラベルと裏ラベルに記載しております。
+要冷蔵の商品でもあるため、特に開栓前は瓶をしっかりと冷やして、
+決して開栓前には振らないでください。中身が噴き出す恐れがありますので大変危険です。</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10415.jpg</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/11418.jpg</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>純米大吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 生酒</t>
+          <t>紀土 純米</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 生酒 1.8L</t>
+          <t>紀土 純米 1.8L</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10571</v>
+        <v>10182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -706,7 +718,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -726,12 +738,12 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3600</v>
+        <v>1900</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>愛山を造らせたら
-右に出るもの無し！</t>
+          <t>日本酒初心者でもスイッと飲めてしまう
+優しい味はほっこり癒し系</t>
         </is>
       </c>
       <c r="L4" t="b">
@@ -750,34 +762,45 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve">「愛山」を造らせたら右に出る者無し！
-こんな美味しい「愛山」を飲んだのは初めてです。「愛山」の特徴でもある酸味を低く抑え、しかも綺麗にかつ上品に、味わいの中に織り込まれた絶品中の絶品です。
-そして更にすごいのは、55％精米の「愛山」でこの価格！！
-他では考えられないほど、コストパフォーマンスが高い！！
-スゴイ！・旨い！・安い！の三拍子が揃った 味わいは、フルーティーで、「パイナップル」のような風味が感じられます。
+          <t xml:space="preserve">コストパフォーマンス抜群の純米酒です。
+穏やかな香りで、キレイなすっきりとしたキレのあるタイプで、
+幅広い料理に合わせ易い、呑み飽きしない食中酒です。
+全体的に爽やかな印象ながら、
+お米の旨みが心地良い余韻とともに感じるお酒です。
+冷や、常温、燗とオールマイティに楽しめます。
+日本酒初心者でもスイッと飲めちゃう、優しいお酒です。
+〜平和酒造コメントより〜
+杜氏の得意とする7号酵母を使用しており、まろやかな口当たりとキレイな味わいですが、しっかりとした旨みがあります。
+また香りもバニラのような甘い香りがします。
+冷酒の時には吟醸としての印象が、燗の時には旨みののった純米酒の印象が最初に来ます。
+紀州の風土の暖かさ、優しさを感じていただければと思います。
 </t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10571.jpg</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/10182.jpg</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>純米</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 生酒</t>
+          <t>紀土 純米</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>鳳凰美田 Black Phoenix 生酒 720ml</t>
+          <t>紀土 純米 720ml</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10579</v>
+        <v>10843</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -786,7 +809,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -806,12 +829,12 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>愛山を造らせたら
-右に出るもの無し！</t>
+          <t>日本酒初心者でもスイッと飲めてしまう
+優しい味はほっこり癒し系</t>
         </is>
       </c>
       <c r="L5" t="b">
@@ -830,34 +853,45 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">「愛山」を造らせたら右に出る者無し！
-こんな美味しい「愛山」を飲んだのは初めてです。「愛山」の特徴でもある酸味を低く抑え、しかも綺麗にかつ上品に、味わいの中に織り込まれた絶品中の絶品です。
-そして更にすごいのは、55％精米の「愛山」でこの価格！！
-他では考えられないほど、コストパフォーマンスが高い！！
-スゴイ！・旨い！・安い！の三拍子が揃った 味わいは、フルーティーで、「パイナップル」のような風味が感じられます。
+          <t xml:space="preserve">コストパフォーマンス抜群の純米酒です。
+穏やかな香りで、キレイなすっきりとしたキレのあるタイプで、
+幅広い料理に合わせ易い、呑み飽きしない食中酒です。
+全体的に爽やかな印象ながら、
+お米の旨みが心地良い余韻とともに感じるお酒です。
+冷や、常温、燗とオールマイティに楽しめます。
+日本酒初心者でもスイッと飲めちゃう、優しいお酒です。
+〜平和酒造コメントより〜
+杜氏の得意とする7号酵母を使用しており、まろやかな口当たりとキレイな味わいですが、しっかりとした旨みがあります。
+また香りもバニラのような甘い香りがします。
+冷酒の時には吟醸としての印象が、燗の時には旨みののった純米酒の印象が最初に来ます。
+紀州の風土の暖かさ、優しさを感じていただければと思います。
 </t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10571.jpg</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/10182.jpg</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>純米</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>鳳凰美田 WINECELL SPARKLING</t>
+          <t>紀土 純米 あがらの生原酒</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鳳凰美田 WINECELL SPARKLING 720ml</t>
+          <t>紀土 純米 あがらの生原酒 1.8L</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10330</v>
+        <v>10844</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -866,7 +900,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -886,12 +920,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>シュワシュワと爽やかで心地よい飲み口。
-甘〜く、上品でうっとりする味わい。</t>
+          <t>蔵人たちと和歌山の米栽培農家の
+思いが込められた
+あがら(＝私たち)のお酒</t>
         </is>
       </c>
       <c r="L6" t="b">
@@ -910,34 +945,40 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ワイン酵母を使って発酵させた活性にごり生酒です。
-十分な澱が爽やかでクリーミーな口当たり。ワイン酵母ならではのフレッシュで華やかな味わいが心地よくウットリとした味わい♪
-〜蔵元コメント〜 優しく混ぜてからシュッと瓶内のガスが抜け落ち着くまでゆっくりっとゆっくりと栓を少しだけ開けてください。
-落ち着いたらフチの薄いワイングラスにそっと注ぎ、手のひらで温めながらお酒と向き合い口に含んでみてください。
-酒温が上がり空気に触れることで日本酒の素晴らしさを感じ僕らの思いが伝わればいいなと思います。
+          <t xml:space="preserve">「紀州の風土」という呼び名から「紀土」という名が付けられています。
+その中でもっとも風土を表しているのが『あがら』となり、自社田で育てられた山田錦と、和歌山県産の山田錦を使用したまさに「地酒」。
+生のまま氷温貯蔵することで米の旨味を引き出しています。
+またあえて低精白にすることで生ならではの爽やかな酸味が米の旨みと絶妙な融合。
+しっかりとボディーのあるふくよかな旨味に、綺麗で軽やかな酸味はまさに紀土らしい味わい。
+通常の紀土シリーズよりこちらの方がよりしっかりとお米の風合いが感じられます。
+冷酒はもちろんですが、深みのある味わいは燗につけても広がります。
 </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10330.jpg</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/10844.jpg</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>純米</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>鳳凰美田 剣 辛口純米</t>
+          <t>紀土 純米 あがらの生原酒</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>鳳凰美田 剣 辛口純米 1.8L</t>
+          <t>紀土 純米 あがらの生原酒 720ml</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10304</v>
+        <v>11543</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -946,7 +987,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -966,11 +1007,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>南国フルーツを思わせるフルーティーでリッチな味わい！限定醸造の特別な鳳凰美田！</t>
+          <t>蔵人たちと和歌山の米栽培農家の
+思いが込められた
+あがら(＝私たち)のお酒</t>
         </is>
       </c>
       <c r="L7" t="b">
@@ -989,16 +1032,19 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>鳳凰美田は数多くの種類を持つお酒ですが、このお酒に関してはその中でもひと際目立つ存在。
-鳳凰美田というと、厚みのある、芳醇で、華やかな味わいを思い浮かべますが、この「剣」はひと味違います。 旨みや芳醇さは確かにあり、十分な旨さを発揮しているのですが、スッと絶妙なタイミングでキレていく辛み。 成る程、鳳凰美田のキレを強化し、辛口にするとこんなにも洗練された印象になるのかと驚愕してしまいます。
-この旨さで、2,500円はちょっと信じられません。
-常温からぬる燗くらいの温度まであげてやると、米の旨みが更に際立ち、こちらにそっともたれかかってくるような、優しい旨さを感じます。
-世に出回ることの少ない鳳凰美田の辛口酒は、辛口好きの方にも、そしてそうでない方にもオススメできるという、とても優れたお酒となっています。</t>
+          <t xml:space="preserve">「紀州の風土」という呼び名から「紀土」という名が付けられています。
+その中でもっとも風土を表しているのが『あがら』となり、自社田で育てられた山田錦と、和歌山県産の山田錦を使用したまさに「地酒」。
+生のまま氷温貯蔵することで米の旨味を引き出しています。
+またあえて低精白にすることで生ならではの爽やかな酸味が米の旨みと絶妙な融合。
+しっかりとボディーのあるふくよかな旨味に、綺麗で軽やかな酸味はまさに紀土らしい味わい。
+通常の紀土シリーズよりこちらの方がよりしっかりとお米の風合いが感じられます。
+冷酒はもちろんですが、深みのある味わいは燗につけても広がります。
+</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10304.jpg</t>
+          <t>https://www.af-1.jp/bottle/10844.jpg</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1010,16 +1056,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>鳳凰美田 剣 辛口純米</t>
+          <t>紀土 純米吟醸</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>鳳凰美田 剣 辛口純米 720ml</t>
+          <t>紀土 純米吟醸 1.8L</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12611</v>
+        <v>10181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1074,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1048,11 +1094,12 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1400</v>
+        <v>2260</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>南国フルーツを思わせるフルーティーでリッチな味わい！限定醸造の特別な鳳凰美田！</t>
+          <t>青リンゴ系の少し華やかな優しい吟醸香が広がる
+透明感のある綺麗な味</t>
         </is>
       </c>
       <c r="L8" t="b">
@@ -1071,37 +1118,42 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>鳳凰美田は数多くの種類を持つお酒ですが、このお酒に関してはその中でもひと際目立つ存在。
-鳳凰美田というと、厚みのある、芳醇で、華やかな味わいを思い浮かべますが、この「剣」はひと味違います。 旨みや芳醇さは確かにあり、十分な旨さを発揮しているのですが、スッと絶妙なタイミングでキレていく辛み。 成る程、鳳凰美田のキレを強化し、辛口にするとこんなにも洗練された印象になるのかと驚愕してしまいます。
-この旨さで、2,500円はちょっと信じられません。
-常温からぬる燗くらいの温度まであげてやると、米の旨みが更に際立ち、こちらにそっともたれかかってくるような、優しい旨さを感じます。
-世に出回ることの少ない鳳凰美田の辛口酒は、辛口好きの方にも、そしてそうでない方にもオススメできるという、とても優れたお酒となっています。</t>
+          <t xml:space="preserve">少し華やかな優しい吟醸香が広がる、透明感のあるキレイでキレのある食中酒。
+スッキリとした甘い香り。するりとした柔らかい口当たり。柔らかい甘味にスッキリとした酸味。
+んースッキリ！スルスルと飲めますねー。
+こちらも冷や、常温、燗とオールマイティに楽しめます。
+気づいたら大量に飲んでしまう危険なお酒！？
+〜平和酒造コメントより〜
+低温でゆっくりと発酵をさせることで、鮮烈な岩清水のようなイメージでこの酒を造っています。
+紀州の風土の美しさすがすがしさを感じていただければと思います。
+紀土の純米と飲み比べてみたら、違いがわかります！
+</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10304.jpg</t>
+          <t>https://www.af-1.jp/bottle/10181.jpg</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>純米</t>
+          <t>純米吟醸</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 火入れ</t>
+          <t>紀土 純米吟醸</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 火入れ 1.8L</t>
+          <t>紀土 純米吟醸 720ml</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10616</v>
+        <v>10188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1110,7 +1162,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1130,11 +1182,12 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3400</v>
+        <v>1130</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ワイン酵母で仕込んだJAPANESE-SAKE。優雅で華やかな香り！</t>
+          <t>青リンゴ系の少し華やかな優しい吟醸香が広がる
+透明感のある綺麗な味</t>
         </is>
       </c>
       <c r="L9" t="b">
@@ -1153,16 +1206,21 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>以下蔵元説明：
-この商品は仏国友情蔵のワイナリーより提供されたワイン酵母を仕用し仕込んでいる特別な商品でございます。
-この商品ならではの独特なタッチ、爽やかな酸味、果実のような熟した甘味など、日本酒をもっともっと楽しんでいただければと思います・・・。
-お召し上がりになる際は、グラスに注ぎ、ゆっくりと空気に触れさせ常温に近い状態にまで温まりますと、
-味わいの膨らみ、お米の優しさ、純米吟醸酒だけにしか纏えない香り、甘味、そして雅な質感など十分にお伝えできると思います・・・。</t>
+          <t xml:space="preserve">少し華やかな優しい吟醸香が広がる、透明感のあるキレイでキレのある食中酒。
+スッキリとした甘い香り。するりとした柔らかい口当たり。柔らかい甘味にスッキリとした酸味。
+んースッキリ！スルスルと飲めますねー。
+こちらも冷や、常温、燗とオールマイティに楽しめます。
+気づいたら大量に飲んでしまう危険なお酒！？
+〜平和酒造コメントより〜
+低温でゆっくりと発酵をさせることで、鮮烈な岩清水のようなイメージでこの酒を造っています。
+紀州の風土の美しさすがすがしさを感じていただければと思います。
+紀土の純米と飲み比べてみたら、違いがわかります！
+</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10616.jpg</t>
+          <t>https://www.af-1.jp/bottle/10181.jpg</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1174,16 +1232,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 火入れ</t>
+          <t>紀土 純米吟醸 しぼりたて</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 火入れ 720ml</t>
+          <t>紀土 純米吟醸 しぼりたて 1.8L</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10617</v>
+        <v>11249</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1192,7 +1250,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,11 +1270,11 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ワイン酵母で仕込んだJAPANESE-SAKE。優雅で華やかな香り！</t>
+          <t>しぼりたて特有のフレッシュな味わいまろやかながらもシャープな切れ味</t>
         </is>
       </c>
       <c r="L10" t="b">
@@ -1235,16 +1293,26 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>以下蔵元説明：
-この商品は仏国友情蔵のワイナリーより提供されたワイン酵母を仕用し仕込んでいる特別な商品でございます。
-この商品ならではの独特なタッチ、爽やかな酸味、果実のような熟した甘味など、日本酒をもっともっと楽しんでいただければと思います・・・。
-お召し上がりになる際は、グラスに注ぎ、ゆっくりと空気に触れさせ常温に近い状態にまで温まりますと、
-味わいの膨らみ、お米の優しさ、純米吟醸酒だけにしか纏えない香り、甘味、そして雅な質感など十分にお伝えできると思います・・・。</t>
+          <t>少しガスを含んだ、しぼりたて特有の
+ピチピチとしたフレッシュな味わい。
+後味はすっきり爽やか。
+軽かさと透明感を特徴とする純米吟醸の生酒です。
+しぼりたてらしいフレッシュさ、爽やかな果実のような香りと酸味、
+五百万石の柔らかい幅のある旨みが味わえる絶品です。
+食事との相性も抜群で非常にコストパフォーマンスの高いお酒です。
+この美味しさで一升瓶2300円！？かなり「お得」な純米吟醸です。
+【令和元年の味わいと造り】
+令和元年初のしぼりたては、あたたかい時期の仕込みとなりました。
+なかなか蒸米が冷えず、醪管理においても冷やすことに非常に注力しました。
+毎年1本目の吟醸酒は「今年はどのようなお酒になるのか…」と期待と心配を膨らませながらの仕込みになります。
+搾った時に納得のいく出来に仕上がっていると、ようやくそこでホッとします。
+令和元年のしぼりたては、程よい香りで、旨味がありキレのよいフレッシュな酒質を目指して醸すことを目標にしています。やはり搾りの瞬間は緊張しましたが、香りは穏やかで、すっきりとキレの良いしぼりたてに仕上がっており、一安心しました！
+そんな今年のしぼりたてに合わせるなら、 ふぐ刺し、ひらめの刺身、れんこん饅頭、鯛のカルパッチョなど、味わいのさっぱりとしたお食事がおすすめです！</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10616.jpg</t>
+          <t>https://www.af-1.jp/bottle/11249.jpg</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1256,16 +1324,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 無濾過本生酒</t>
+          <t>紀土 純米吟醸 しぼりたて</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 無濾過本生酒 1.8L</t>
+          <t>紀土 純米吟醸 しぼりたて 720ml</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10569</v>
+        <v>11250</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1274,7 +1342,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1294,13 +1362,11 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3400</v>
+        <v>1150</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>ワイン酵母で仕込んだ
-JAPANESE-SAKE。
-優雅で華やかな香り！</t>
+          <t>しぼりたて特有のフレッシュな味わいまろやかながらもシャープな切れ味</t>
         </is>
       </c>
       <c r="L11" t="b">
@@ -1319,17 +1385,26 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">以下蔵元説明：
-この商品は仏国友情蔵のワイナリーより提供されたワイン酵母を仕用し仕込んでいる特別な商品でございます。
-この商品ならではの独特なタッチ、爽やかな酸味、果実のような熟した甘味など、日本酒をもっともっと楽しんでいただければと思います・・・。
-お召し上がりになる際は、グラスに注ぎ、ゆっくりと空気に触れさせ常温に近い状態にまで温まりますと、
-味わいの膨らみ、お米の優しさ、純米吟醸酒だけにしか纏えない香り、甘味、そして雅な質感など十分にお伝えできると思います・・・。
-</t>
+          <t>少しガスを含んだ、しぼりたて特有の
+ピチピチとしたフレッシュな味わい。
+後味はすっきり爽やか。
+軽かさと透明感を特徴とする純米吟醸の生酒です。
+しぼりたてらしいフレッシュさ、爽やかな果実のような香りと酸味、
+五百万石の柔らかい幅のある旨みが味わえる絶品です。
+食事との相性も抜群で非常にコストパフォーマンスの高いお酒です。
+この美味しさで一升瓶2300円！？かなり「お得」な純米吟醸です。
+【令和元年の味わいと造り】
+令和元年初のしぼりたては、あたたかい時期の仕込みとなりました。
+なかなか蒸米が冷えず、醪管理においても冷やすことに非常に注力しました。
+毎年1本目の吟醸酒は「今年はどのようなお酒になるのか…」と期待と心配を膨らませながらの仕込みになります。
+搾った時に納得のいく出来に仕上がっていると、ようやくそこでホッとします。
+令和元年のしぼりたては、程よい香りで、旨味がありキレのよいフレッシュな酒質を目指して醸すことを目標にしています。やはり搾りの瞬間は緊張しましたが、香りは穏やかで、すっきりとキレの良いしぼりたてに仕上がっており、一安心しました！
+そんな今年のしぼりたてに合わせるなら、 ふぐ刺し、ひらめの刺身、れんこん饅頭、鯛のカルパッチョなど、味わいのさっぱりとしたお食事がおすすめです！</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10569.jpg</t>
+          <t>https://www.af-1.jp/bottle/11249.jpg</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1341,16 +1416,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 無濾過本生酒</t>
+          <t>紀土 純米吟醸 にごりざけ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 WINECELL 無濾過本生酒 720ml</t>
+          <t>紀土 純米吟醸 にごりざけ 1.8L</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11466</v>
+        <v>11293</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1359,7 +1434,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1379,13 +1454,11 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>ワイン酵母で仕込んだ
-JAPANESE-SAKE。
-優雅で華やかな香り！</t>
+          <t>にごり酒生ならでは！爽やかなガス感と華やかな香り。爽快！柔らかな旨味！</t>
         </is>
       </c>
       <c r="L12" t="b">
@@ -1404,17 +1477,19 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">以下蔵元説明：
-この商品は仏国友情蔵のワイナリーより提供されたワイン酵母を仕用し仕込んでいる特別な商品でございます。
-この商品ならではの独特なタッチ、爽やかな酸味、果実のような熟した甘味など、日本酒をもっともっと楽しんでいただければと思います・・・。
-お召し上がりになる際は、グラスに注ぎ、ゆっくりと空気に触れさせ常温に近い状態にまで温まりますと、
-味わいの膨らみ、お米の優しさ、純米吟醸酒だけにしか纏えない香り、甘味、そして雅な質感など十分にお伝えできると思います・・・。
-</t>
+          <t>にごり酒生らしいフレッシュな味わいと滑らかな口当たりのお酒です。
+紀土らしい爽快さ綺麗さと
+柔らかな旨味を感じていただけたら幸いです。
+【店長コメント】
+穴あきタイプの活性清酒用の栓を使用しておりますが、
+穴が開いているとはいえ吹く可能性がございます。
+また瓶を横に倒されますと穴があいてる為に
+こぼれる可能性がありますので、くれぐれもご注意ください。</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10569.jpg</t>
+          <t>https://www.af-1.jp/bottle/11293.jpg</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1426,16 +1501,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 火入れ</t>
+          <t>紀土 純米吟醸 にごりざけ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 火入れ 1.8L</t>
+          <t>紀土 純米吟醸 にごりざけ 720ml</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10726</v>
+        <v>11294</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1444,7 +1519,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1464,12 +1539,11 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>青いメロンを思わせる、爽やかな香り。
-コスパに富んだ凄い酒！</t>
+          <t>にごり酒生ならでは！爽やかなガス感と華やかな香り。爽快！柔らかな旨味！</t>
         </is>
       </c>
       <c r="L13" t="b">
@@ -1488,16 +1562,19 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve">富山県南砺（なんと）産の「五百万石」を55％まで磨き上げ、低温でゆっくりと発酵。
-特有のフレッシュ感と純米吟醸ならでは軽快で心地よい味わい。
-青いメロンを思わせる、爽やかな吟醸香と、程良い酸味と旨味。
-さらりとした質感を重視した超コストパフォーマンに富んだ酒です。
-</t>
+          <t>にごり酒生らしいフレッシュな味わいと滑らかな口当たりのお酒です。
+紀土らしい爽快さ綺麗さと
+柔らかな旨味を感じていただけたら幸いです。
+【店長コメント】
+穴あきタイプの活性清酒用の栓を使用しておりますが、
+穴が開いているとはいえ吹く可能性がございます。
+また瓶を横に倒されますと穴があいてる為に
+こぼれる可能性がありますので、くれぐれもご注意ください。</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10726.jpg</t>
+          <t>https://www.af-1.jp/bottle/11293.jpg</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1509,16 +1586,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 火入れ</t>
+          <t>紀土 純米吟醸 ひやおろし</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 火入れ 720ml</t>
+          <t>紀土 純米吟醸 ひやおろし 1.8L</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10730</v>
+        <v>10631</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1604,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1547,12 +1624,11 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>青いメロンを思わせる、爽やかな香り。
-コスパに富んだ凄い酒！</t>
+          <t>柔らかな口当たりスっとキレる優しい印象の酒</t>
         </is>
       </c>
       <c r="L14" t="b">
@@ -1571,16 +1647,16 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve">富山県南砺（なんと）産の「五百万石」を55％まで磨き上げ、低温でゆっくりと発酵。
-特有のフレッシュ感と純米吟醸ならでは軽快で心地よい味わい。
-青いメロンを思わせる、爽やかな吟醸香と、程良い酸味と旨味。
-さらりとした質感を重視した超コストパフォーマンに富んだ酒です。
-</t>
+          <t>上品な吟醸香がやさしく口の中を包み込み、
+旨みがじんわりと舌の上にひろがります。
+「紀土」らしいやわらかさとキレも感じて頂けます。
+冷酒、ひや、もちろんお燗でも。
+秋の恵みとともにお楽しみ頂けますと幸いです。</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10726.jpg</t>
+          <t>https://www.af-1.jp/bottle/10631.jpg</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1592,16 +1668,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 火入れ酒</t>
+          <t>紀土 純米吟醸 ひやおろし</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 火入れ酒 1.8L</t>
+          <t>紀土 純米吟醸 ひやおろし 720ml</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10416</v>
+        <v>10847</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1686,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1630,12 +1706,11 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3500</v>
+        <v>1150</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>麗しく香る酒。
-目に浮かぶは黄金に輝く田園。</t>
+          <t>柔らかな口当たりスっとキレる優しい印象の酒</t>
         </is>
       </c>
       <c r="L15" t="b">
@@ -1654,19 +1729,16 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">使用されている「亀の尾」というお米は、今よりも100年以上も前に生まれたお米で、一時は姿を消していたこともある幻のお米。
-非常に稀少なお米が使われた限定酒となります。
-数ある鳳凰美田のお酒の中でも、その香りの高さは群を抜いていて、上立ち香だけでも酔い心地になってしまいそうなほど。
-その印象のままにゴクリと含んでみると、その香りとは裏腹に落ち着いた芳醇な旨みが口内に広がります。
-そのギャップがまた素晴らしく、香りと味わいのバランスはお見事。
-まるで西洋の果樹園に迷い込んだかのような香りから、含むと目に浮かぶ黄金色に輝く秋の田園。
-華やかさとしおらしさ、これほどのお酒がこの価格で楽しむことが出来るのは嬉しい限りです。
-</t>
+          <t>上品な吟醸香がやさしく口の中を包み込み、
+旨みがじんわりと舌の上にひろがります。
+「紀土」らしいやわらかさとキレも感じて頂けます。
+冷酒、ひや、もちろんお燗でも。
+秋の恵みとともにお楽しみ頂けますと幸いです。</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10416.jpg</t>
+          <t>https://www.af-1.jp/bottle/10631.jpg</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1678,16 +1750,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 火入れ酒</t>
+          <t>紀土 純米吟醸 夏の疾風</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 火入れ酒 720ml</t>
+          <t>紀土 純米吟醸 夏の疾風 1.8L</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10412</v>
+        <v>10494</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1696,7 +1768,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1716,12 +1788,11 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>麗しく香る酒。
-目に浮かぶは黄金に輝く田園。</t>
+          <t>爽やかなリンゴ酸が夏の暑さを癒してくれます。</t>
         </is>
       </c>
       <c r="L16" t="b">
@@ -1740,19 +1811,16 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t xml:space="preserve">使用されている「亀の尾」というお米は、今よりも100年以上も前に生まれたお米で、一時は姿を消していたこともある幻のお米。
-非常に稀少なお米が使われた限定酒となります。
-数ある鳳凰美田のお酒の中でも、その香りの高さは群を抜いていて、上立ち香だけでも酔い心地になってしまいそうなほど。
-その印象のままにゴクリと含んでみると、その香りとは裏腹に落ち着いた芳醇な旨みが口内に広がります。
-そのギャップがまた素晴らしく、香りと味わいのバランスはお見事。
-まるで西洋の果樹園に迷い込んだかのような香りから、含むと目に浮かぶ黄金色に輝く秋の田園。
-華やかさとしおらしさ、これほどのお酒がこの価格で楽しむことが出来るのは嬉しい限りです。
-</t>
+          <t>さらりと優しく、山あいを吹き抜ける風を感じる涼風夏酒。
+爽快感のある酸味とシャープなキレが特徴です。
+夏のお酒にふさわしく爽やかなリンゴ酸が夏の暑さを癒してくれます。
+アルコール分を感じさせない爽快な飲み口、
+キリリと冷やし、夏のさっぱりとした料理との相性が抜群です。</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10416.jpg</t>
+          <t>https://www.af-1.jp/bottle/10494.jpg</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1764,16 +1832,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 無濾過生酒</t>
+          <t>紀土 純米吟醸 夏の疾風</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 無濾過生酒 1.8L</t>
+          <t>紀土 純米吟醸 夏の疾風 720ml</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10347</v>
+        <v>10495</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1782,7 +1850,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1802,12 +1870,11 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>麗しく香る酒。
-目に浮かぶは黄金に輝く田園。</t>
+          <t>爽やかなリンゴ酸が夏の暑さを癒してくれます。</t>
         </is>
       </c>
       <c r="L17" t="b">
@@ -1826,19 +1893,16 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t xml:space="preserve">使用されている「亀の尾」というお米は、今よりも100年以上も前に生まれたお米で、一時は姿を消していたこともある幻のお米。
-非常に稀少なお米が使われた限定酒となります。
-数ある鳳凰美田のお酒の中でも、その香りの高さは群を抜いていて、上立ち香だけでも酔い心地になってしまいそうなほど。
-その印象のままにゴクリと含んでみると、その香りとは裏腹に落ち着いた芳醇な旨みが口内に広がります。
-そのギャップがまた素晴らしく、香りと味わいのバランスはお見事。
-まるで西洋の果樹園に迷い込んだかのような香りから、含むと目に浮かぶ黄金色に輝く秋の田園。
-華やかさとしおらしさ、これほどのお酒がこの価格で楽しむことが出来るのは嬉しい限りです。
-</t>
+          <t>さらりと優しく、山あいを吹き抜ける風を感じる涼風夏酒。
+爽快感のある酸味とシャープなキレが特徴です。
+夏のお酒にふさわしく爽やかなリンゴ酸が夏の暑さを癒してくれます。
+アルコール分を感じさせない爽快な飲み口、
+キリリと冷やし、夏のさっぱりとした料理との相性が抜群です。</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10347.jpg</t>
+          <t>https://www.af-1.jp/bottle/10494.jpg</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1850,16 +1914,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 無濾過生酒</t>
+          <t>紀土 純米吟醸春ノ薫風</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 亀の尾 無濾過生酒 720ml</t>
+          <t>紀土 純米吟醸 春ノ薫風 1.8L</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10348</v>
+        <v>10686</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1868,7 +1932,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1888,12 +1952,11 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>麗しく香る酒。
-目に浮かぶは黄金に輝く田園。</t>
+          <t>ほんのりとした苦みがポイント♪春野菜と共に是非味わいたい！</t>
         </is>
       </c>
       <c r="L18" t="b">
@@ -1912,19 +1975,24 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t xml:space="preserve">使用されている「亀の尾」というお米は、今よりも100年以上も前に生まれたお米で、一時は姿を消していたこともある幻のお米。
-非常に稀少なお米が使われた限定酒となります。
-数ある鳳凰美田のお酒の中でも、その香りの高さは群を抜いていて、上立ち香だけでも酔い心地になってしまいそうなほど。
-その印象のままにゴクリと含んでみると、その香りとは裏腹に落ち着いた芳醇な旨みが口内に広がります。
-そのギャップがまた素晴らしく、香りと味わいのバランスはお見事。
-まるで西洋の果樹園に迷い込んだかのような香りから、含むと目に浮かぶ黄金色に輝く秋の田園。
-華やかさとしおらしさ、これほどのお酒がこの価格で楽しむことが出来るのは嬉しい限りです。
-</t>
+          <t>春を感じさせてくれる綺麗な透明の爽やかなボトルに、桜色の文字で描かれた「紀土」の文字。今年も紀土の春限定酒、「春ノ薫風」が入荷してきました。
+紀土の特徴と言えばフルーティーで芳醇。春ノ薫風もその特徴を引き継ぎつつ、より柔らかい酒質となり、若干の苦みが大人の紀土、そして別れと出会いの春を表した、淡くも軽快な紀土となっています。春のうららかな季節のよう。
+春野菜などと是非お楽しみいただきたい一本です。
+今年の味わいについて〜杜氏 柴田氏より〜
+今年の春ノ薫風は、華やかな香りで、甘みがあり後味スッキリした味わいに仕上げました。春のお花見のお共にもピッタリなお酒です！
+そんな今年の「紀土 純米吟醸酒 春ノ薫風」に合わせるなら
+・春野菜の天ぷら
+・さわらのソテー
+・タイの餡掛け饅頭
+・アスパラガスの和風パスタ(ダシ醤油味)
+・つまみタラ(おつまみ)
+など、春が旬の食材を使用した料理がオススメです！
+華やかで甘みのある春ノ薫風とのマリアージュをお楽しみください。</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10347.jpg</t>
+          <t>https://www.af-1.jp/bottle/10686.jpg</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1936,16 +2004,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 初しぼり</t>
+          <t>紀土 純米吟醸春ノ薫風</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 初しぼり 1.8L</t>
+          <t>紀土 純米吟醸春ノ薫風 720ml</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10305</v>
+        <v>10687</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1954,7 +2022,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1974,11 +2042,11 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2800</v>
+        <v>1150</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>新酒第一弾の「純米吟醸」クオリティの高さに脱帽後を引く旨さ</t>
+          <t>ほんのりとした苦みがポイント♪春野菜と共に是非味わいたい！</t>
         </is>
       </c>
       <c r="L19" t="b">
@@ -1997,15 +2065,24 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>酒造好適米「五百万石」を55%まで磨き上げ、低温でゆっくりと発酵。
-マスカットを思わせる上品な吟醸香が印象的。
-無濾過の為、うっすらと白い濁りがあります。
-爽やかな香りでキラキラ輝く、スッキリでスルリとした喉ごしに魅了される味わいです。</t>
+          <t>春を感じさせてくれる綺麗な透明の爽やかなボトルに、桜色の文字で描かれた「紀土」の文字。今年も紀土の春限定酒、「春ノ薫風」が入荷してきました。
+紀土の特徴と言えばフルーティーで芳醇。春ノ薫風もその特徴を引き継ぎつつ、より柔らかい酒質となり、若干の苦みが大人の紀土、そして別れと出会いの春を表した、淡くも軽快な紀土となっています。春のうららかな季節のよう。
+春野菜などと是非お楽しみいただきたい一本です。
+今年の味わいについて〜杜氏 柴田氏より〜
+今年の春ノ薫風は、華やかな香りで、甘みがあり後味スッキリした味わいに仕上げました。春のお花見のお共にもピッタリなお酒です！
+そんな今年の「紀土 純米吟醸酒 春ノ薫風」に合わせるなら
+・春野菜の天ぷら
+・さわらのソテー
+・タイの餡掛け饅頭
+・アスパラガスの和風パスタ(ダシ醤油味)
+・つまみタラ(おつまみ)
+など、春が旬の食材を使用した料理がオススメです！
+華やかで甘みのある春ノ薫風とのマリアージュをお楽しみください。</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10305.jpg</t>
+          <t>https://www.af-1.jp/bottle/10686.jpg</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2017,16 +2094,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 初しぼり</t>
+          <t>紀土 純米大吟醸 shibatas ambitious</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 初しぼり 720ml</t>
+          <t>紀土 純米大吟醸 shibatas ambitious 1.8L</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10306</v>
+        <v>11371</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2035,7 +2112,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2055,11 +2132,11 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>新酒第一弾の「純米吟醸」クオリティの高さに脱帽後を引く旨さ</t>
+          <t>杜氏SPECIAL華やかさをプラス!</t>
         </is>
       </c>
       <c r="L20" t="b">
@@ -2078,36 +2155,39 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>酒造好適米「五百万石」を55%まで磨き上げ、低温でゆっくりと発酵。
-マスカットを思わせる上品な吟醸香が印象的。
-無濾過の為、うっすらと白い濁りがあります。
-爽やかな香りでキラキラ輝く、スッキリでスルリとした喉ごしに魅了される味わいです。</t>
+          <t>「Shibata's」は「柴田の…」という意味です。
+「柴田の酒」「柴田と蔵人達による」などの意味をこめています。
+杜氏スペシャルシリーズの限定酒
+『紀土 KID 純米大吟醸 Shibata's be ambitious』
+“be ambitious”には日本酒の魅力を伝えるということの気概と志をメッセージに込めました。
+味わいの豊かさと華やかな香り、そして紀土ならでは柔らかさを出し、
+日本酒の魅力を表現しました。</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10305.jpg</t>
+          <t>https://www.af-1.jp/bottle/11371.jpg</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 生原酒 碧判</t>
+          <t>紀土 純米大吟醸 shibatas ambitious</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 生原酒 碧判 1.8L</t>
+          <t>紀土 純米大吟醸 shibatas ambitious 720ml</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10323</v>
+        <v>11372</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2116,7 +2196,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2136,11 +2216,11 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>鳳凰美田の代表的銘柄で看板商品です。インパクト重視！ハッと驚く美味しさです。</t>
+          <t>杜氏SPECIAL華やかさをプラス!</t>
         </is>
       </c>
       <c r="L21" t="b">
@@ -2159,36 +2239,39 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>「純米吟醸無濾過生原酒」で、鳳凰美田の看板商品！！
-新鮮なライチや、みずみずしいメロンのようなフレッシュでインパクトのある吟醸香が楽しめます。
-ストレートなしっかりした旨みは、地酒入門者からマニアの方までを満足させてくれます。
-新米仕込みによるパワー溢れる味わいです。</t>
+          <t>「Shibata's」は「柴田の…」という意味です。
+「柴田の酒」「柴田と蔵人達による」などの意味をこめています。
+杜氏スペシャルシリーズの限定酒
+『紀土 KID 純米大吟醸 Shibata's be ambitious』
+“be ambitious”には日本酒の魅力を伝えるということの気概と志をメッセージに込めました。
+味わいの豊かさと華やかな香り、そして紀土ならでは柔らかさを出し、
+日本酒の魅力を表現しました。</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10323.jpg</t>
+          <t>https://www.af-1.jp/bottle/11371.jpg</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 生原酒 碧判</t>
+          <t>紀土 純米大吟醸 shibata's be fresh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 生原酒 碧判 720ml</t>
+          <t>紀土 純米大吟醸 shibata's be fresh 1.8L</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10490</v>
+        <v>10554</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2197,7 +2280,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2217,11 +2300,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>鳳凰美田の代表的銘柄で看板商品です。インパクト重視！ハッと驚く美味しさです。</t>
+          <t>生き生きとした生命感や
+若々しさを名前そのままに
+フレッシュ感あふれる酒</t>
         </is>
       </c>
       <c r="L22" t="b">
@@ -2240,36 +2325,44 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>「純米吟醸無濾過生原酒」で、鳳凰美田の看板商品！！
-新鮮なライチや、みずみずしいメロンのようなフレッシュでインパクトのある吟醸香が楽しめます。
-ストレートなしっかりした旨みは、地酒入門者からマニアの方までを満足させてくれます。
-新米仕込みによるパワー溢れる味わいです。</t>
+          <t xml:space="preserve">「Shibata's」は「柴田の…」という意味です。
+「柴田の酒」「柴田の蔵人達による」などの意味をこめています。
+杜氏･柴田さんの名を冠した
+杜氏スペシャルシリーズの生原酒（限定酒）。
+まるで、大吟醸クラスかと錯覚してしまうような、華やかな香りです。
+生原酒ならではの生き生きとした生命感、
+若々しいフレッシュな味わいが魅力♪
+まだメロンのような若さを感じますが、
+余韻に苦味を感じることはなく、全体バランスは最高です。
+柴田杜氏が、その年に醸したお酒の中で
+特に出来が良いものを選んでこの名をつけています。
+</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10323.jpg</t>
+          <t>https://www.af-1.jp/bottle/10554.jpg</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 火入れ</t>
+          <t>紀土 純米大吟醸 shibata's be fresh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 火入れ 1.8L</t>
+          <t>紀土 純米大吟醸 shibata's be fresh 720ml</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10407</v>
+        <v>11281</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2278,7 +2371,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2298,13 +2391,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>無農薬酒米生産者、
-「藤田芳」さん由来の酒。
-「驚く」ほど、華やかな味わいと香りです。</t>
+          <t>生き生きとした生命感や
+若々しさを名前そのままに
+フレッシュ感あふれる酒</t>
         </is>
       </c>
       <c r="L23" t="b">
@@ -2323,39 +2416,44 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">完全無農薬「雄山錦」使用の鳳凰美田です。
-生産地は栃木県芳賀郡益子町、酒米生産者の「藤田　芳（ふじたかんばし）」さんからネーミングをとっています。
-藤田さんは、JAS法制定以前より無農薬認定歴20年余りの経験者で、第一回の農産物品評会では第1位を獲得されているそうです。
-いぜんBLOGにも紹介させて頂きましたが、藤田さんのお野菜は、小林専務より送って頂いて我々も食しています。
-箱には一緒に手書きのお手紙が添えられていて、お会いした事はないですが藤田さんの真面目で温かい人柄がよく伝わってまいりました。
-味わいは、力強くて濃い味わいに仕上がっておりますので、食中酒としてもお楽しみいただけます。
+          <t xml:space="preserve">「Shibata's」は「柴田の…」という意味です。
+「柴田の酒」「柴田の蔵人達による」などの意味をこめています。
+杜氏･柴田さんの名を冠した
+杜氏スペシャルシリーズの生原酒（限定酒）。
+まるで、大吟醸クラスかと錯覚してしまうような、華やかな香りです。
+生原酒ならではの生き生きとした生命感、
+若々しいフレッシュな味わいが魅力♪
+まだメロンのような若さを感じますが、
+余韻に苦味を感じることはなく、全体バランスは最高です。
+柴田杜氏が、その年に醸したお酒の中で
+特に出来が良いものを選んでこの名をつけています。
 </t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10407.jpg</t>
+          <t>https://www.af-1.jp/bottle/10554.jpg</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 火入れ</t>
+          <t>紀土 純米大吟醸 山田五〇</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 火入れ 720ml</t>
+          <t>紀土 純米大吟醸 山田五〇 1.8L</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10408</v>
+        <v>10534</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2364,7 +2462,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2384,13 +2482,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>無農薬酒米生産者、
-「藤田芳」さん由来の酒。
-「驚く」ほど、華やかな味わいと香りです。</t>
+          <t>このスペック、
+この味で、この価格!!
+はっきり言って安いです。</t>
         </is>
       </c>
       <c r="L24" t="b">
@@ -2409,39 +2507,38 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t xml:space="preserve">完全無農薬「雄山錦」使用の鳳凰美田です。
-生産地は栃木県芳賀郡益子町、酒米生産者の「藤田　芳（ふじたかんばし）」さんからネーミングをとっています。
-藤田さんは、JAS法制定以前より無農薬認定歴20年余りの経験者で、第一回の農産物品評会では第1位を獲得されているそうです。
-いぜんBLOGにも紹介させて頂きましたが、藤田さんのお野菜は、小林専務より送って頂いて我々も食しています。
-箱には一緒に手書きのお手紙が添えられていて、お会いした事はないですが藤田さんの真面目で温かい人柄がよく伝わってまいりました。
-味わいは、力強くて濃い味わいに仕上がっておりますので、食中酒としてもお楽しみいただけます。
+          <t xml:space="preserve">大吟醸クラスの香りやフルーティーさもあり、
+紀土らしい綺麗さや、優しさ膨らみを感じさせます。
+おだやかでやさしいマンゴーのような香り。
+味わいに深みがあり、やわらかな旨味がふわりと口中に広がります。
+後から感じられるやさしい酸とのバランスのよい五味が調和した芳醇旨口な味わい。
 </t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10407.jpg</t>
+          <t>https://www.af-1.jp/bottle/10534.jpg</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 無濾過生酒</t>
+          <t>紀土 純米大吟醸 山田五〇</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 無濾過生酒 1.8L</t>
+          <t>紀土 純米大吟醸 山田五〇 720ml</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10334</v>
+        <v>10535</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2450,7 +2547,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2470,13 +2567,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>無農薬酒米生産者、
-「藤田芳」さん由来の酒。
-「驚く」ほど、華やかな味わいと香りです。</t>
+          <t>このスペック、
+この味で、この価格!!
+はっきり言って安いです。</t>
         </is>
       </c>
       <c r="L25" t="b">
@@ -2495,39 +2592,38 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve">完全無農薬「雄山錦」使用の鳳凰美田です。
-生産地は栃木県芳賀郡益子町、酒米生産者の「藤田　芳（ふじたかんばし）」さんからネーミングをとっています。
-藤田さんは、JAS法制定以前より無農薬認定歴20年余りの経験者で、第一回の農産物品評会では第1位を獲得されているそうです。
-いぜんBLOGにも紹介させて頂きましたが、藤田さんのお野菜は、小林専務より送って頂いて我々も食しています。
-箱には一緒に手書きのお手紙が添えられていて、お会いした事はないですが藤田さんの真面目で温かい人柄がよく伝わってまいりました。
-味わいは、力強くて濃い味わいに仕上がっておりますので、食中酒としてもお楽しみいただけます。
+          <t xml:space="preserve">大吟醸クラスの香りやフルーティーさもあり、
+紀土らしい綺麗さや、優しさ膨らみを感じさせます。
+おだやかでやさしいマンゴーのような香り。
+味わいに深みがあり、やわらかな旨味がふわりと口中に広がります。
+後から感じられるやさしい酸とのバランスのよい五味が調和した芳醇旨口な味わい。
 </t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10334.jpg</t>
+          <t>https://www.af-1.jp/bottle/10534.jpg</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 無濾過生酒</t>
+          <t>紀土 純米大吟醸 山田四十</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 芳 無濾過生酒 720ml</t>
+          <t xml:space="preserve">紀土 純米大吟醸 山田四十 1.8L　</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10335</v>
+        <v>11373</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2536,7 +2632,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2556,13 +2652,12 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>無農薬酒米生産者、
-「藤田芳」さん由来の酒。
-「驚く」ほど、華やかな味わいと香りです。</t>
+          <t>繊細な味わいを表現しようと醸しました
+新しい『紀土』の幕開けです！</t>
         </is>
       </c>
       <c r="L26" t="b">
@@ -2581,39 +2676,41 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t xml:space="preserve">完全無農薬「雄山錦」使用の鳳凰美田です。
-生産地は栃木県芳賀郡益子町、酒米生産者の「藤田　芳（ふじたかんばし）」さんからネーミングをとっています。
-藤田さんは、JAS法制定以前より無農薬認定歴20年余りの経験者で、第一回の農産物品評会では第1位を獲得されているそうです。
-いぜんBLOGにも紹介させて頂きましたが、藤田さんのお野菜は、小林専務より送って頂いて我々も食しています。
-箱には一緒に手書きのお手紙が添えられていて、お会いした事はないですが藤田さんの真面目で温かい人柄がよく伝わってまいりました。
-味わいは、力強くて濃い味わいに仕上がっておりますので、食中酒としてもお楽しみいただけます。
+          <t xml:space="preserve">紀州の風土、和歌山の水のもつ柔らかさと優しさはそのままに、
+さらに透明感と繊細さを表現しました。
+素朴な優しい味わいと、上品な吟醸香が口の中を包み込み、長い余韻を残します。
+〜平和酒造コメントより〜
+『紀土』を醸すようになり、はや8年。
+若い蔵人達と共に情熱をもって酒づくりに邁進してきましたが、
+若々しさだけでは出せない、繊細な味わいを表現しようと醸しました。
+新しい『紀土』の幕開けです。
 </t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10334.jpg</t>
+          <t>https://www.af-1.jp/bottle/11373.jpg</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 無濾過生酒</t>
+          <t>紀土 純米大吟醸 山田四十</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 無濾過生酒 1.8L</t>
+          <t>紀土 純米大吟醸 山田四十 720ml</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10640</v>
+        <v>11374</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2719,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2642,12 +2739,12 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>青いメロンを思わせる、爽やかな香り。
-コスパに富んだ凄い酒！</t>
+          <t>繊細な味わいを表現しようと醸しました
+新しい『紀土』の幕開けです！</t>
         </is>
       </c>
       <c r="L27" t="b">
@@ -2666,37 +2763,41 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve">富山県南砺（なんと）産の「五百万石」を55％まで磨き上げ、低温でゆっくりと発酵。
-特有のフレッシュ感と純米吟醸ならでは軽快で心地よい味わい。
-青いメロンを思わせる、爽やかな吟醸香と、程良い酸味と旨味。
-さらりとした質感を重視した超コストパフォーマンに富んだ酒です。
+          <t xml:space="preserve">紀州の風土、和歌山の水のもつ柔らかさと優しさはそのままに、
+さらに透明感と繊細さを表現しました。
+素朴な優しい味わいと、上品な吟醸香が口の中を包み込み、長い余韻を残します。
+〜平和酒造コメントより〜
+『紀土』を醸すようになり、はや8年。
+若い蔵人達と共に情熱をもって酒づくりに邁進してきましたが、
+若々しさだけでは出せない、繊細な味わいを表現しようと醸しました。
+新しい『紀土』の幕開けです。
 </t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10640.jpg</t>
+          <t>https://www.af-1.jp/bottle/11373.jpg</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 無濾過生酒</t>
+          <t>紀土 純米大吟醸 山田四十五</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 無濾過生酒 720ml</t>
+          <t>紀土 純米大吟醸 山田四十五 1.8L</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10688</v>
+        <v>11410</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2806,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2725,12 +2826,12 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>青いメロンを思わせる、爽やかな香り。
-コスパに富んだ凄い酒！</t>
+          <t>透明感と優しさあふれる
+紀州の爽やかなミントグリーン！</t>
         </is>
       </c>
       <c r="L28" t="b">
@@ -2749,37 +2850,39 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t xml:space="preserve">富山県南砺（なんと）産の「五百万石」を55％まで磨き上げ、低温でゆっくりと発酵。
-特有のフレッシュ感と純米吟醸ならでは軽快で心地よい味わい。
-青いメロンを思わせる、爽やかな吟醸香と、程良い酸味と旨味。
-さらりとした質感を重視した超コストパフォーマンに富んだ酒です。
+          <t xml:space="preserve">紀土の特徴である綺麗さと優しさに合わせて、
+心地よい吟醸香により余韻が広がるようなお酒です。
+透明感溢れる仕上がりとなっていて、純米大吟醸らしい上品な味となっております。
+おだやかでやさしい紀州のミントグリーンのような香り。
+味わいに深みがあり、やわらかな旨味がふわりと口中に広がります。
+後から感じられるやさしい酸とのバランスのよい五味が調和した芳醇旨口な味わい。
 </t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10640.jpg</t>
+          <t>https://www.af-1.jp/bottle/11410.jpg</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町</t>
+          <t>紀土 純米大吟醸 山田四十五</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町 1.8L</t>
+          <t>紀土 純米大吟醸 山田四十五 720ml</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10523</v>
+        <v>11411</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2788,7 +2891,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2808,11 +2911,12 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>奥深くも優しい…。繰り返し飲みたくなる味わい「雄町」！</t>
+          <t>透明感と優しさあふれる
+紀州の爽やかなミントグリーン！</t>
         </is>
       </c>
       <c r="L29" t="b">
@@ -2831,38 +2935,39 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>造好適米「雄町」を使用した純米吟醸酒です。
-雄町米で醸したお酒は、
-穏やかながら味わい深いお酒に仕上がります。
-柔らかい口当たり、
-コクと香りのバランスがとれた逸品で、奥深くも優しい…。
-繰り返し飲みたくなる味わいです。</t>
+          <t xml:space="preserve">紀土の特徴である綺麗さと優しさに合わせて、
+心地よい吟醸香により余韻が広がるようなお酒です。
+透明感溢れる仕上がりとなっていて、純米大吟醸らしい上品な味となっております。
+おだやかでやさしい紀州のミントグリーンのような香り。
+味わいに深みがあり、やわらかな旨味がふわりと口中に広がります。
+後から感じられるやさしい酸とのバランスのよい五味が調和した芳醇旨口な味わい。
+</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10523.jpg</t>
+          <t>https://www.af-1.jp/bottle/11410.jpg</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町</t>
+          <t>紀土 大吟醸</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町 720ml</t>
+          <t>紀土 大吟醸 1.8L</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10524</v>
+        <v>10532</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2871,7 +2976,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2891,11 +2996,12 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>奥深くも優しい…。繰り返し飲みたくなる味わい「雄町」！</t>
+          <t>山田錦を35％まで磨いた贅沢なお酒
+綺麗で優しい味わいの食中酒</t>
         </is>
       </c>
       <c r="L30" t="b">
@@ -2914,38 +3020,32 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>造好適米「雄町」を使用した純米吟醸酒です。
-雄町米で醸したお酒は、
-穏やかながら味わい深いお酒に仕上がります。
-柔らかい口当たり、
-コクと香りのバランスがとれた逸品で、奥深くも優しい…。
-繰り返し飲みたくなる味わいです。</t>
+          <t xml:space="preserve">国内産の山田錦を35％まで精白して仕込まれた、長期低温醗酵を経て醸された平和酒造が誇る”自信”の大吟醸酒です。その実力は国内最大級の日本酒コンテストである「IWC」インターナショナルワインチャレンジジにおいて、吟醸酒・大吟醸酒の部で2014年と2015年に、リージョナルトロフィーを連続受賞するなど輝かしい実績を残しています。このトロフィーは総数876銘柄中、10銘柄のみだけ受賞できる最高の栄誉でもあります。
+平和酒造の大吟醸クラスに相応しい、リンゴやサクランボなどのフルーツ系の吟醸香が飲み手の鼻腔で優しく華開きます。口に含んでみると「紀土」の特徴である優しい味わいと、上品でとても綺麗な旨味を心地よく感じさせてくれます。また、”食”との相性を大切にしている酒質の大吟醸のため、料理との絶妙な味のバランスが端正で軽い口当たりに導いてくれる、究極の食中酒です！
+この絶品ともいえる『紀土　大吟醸』は、繊細な和食料理とも抜群の相性があり、特に和食料理店において”美味なる料理に美味い酒”といった贅沢を嗜まれてはいかがでしょうか。
+</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10523.jpg</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>純米吟醸</t>
-        </is>
-      </c>
+          <t>https://www.af-1.jp/bottle/10532.jpg</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町 無濾過生</t>
+          <t>紀土 大吟醸</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町 無濾過生 1.8L</t>
+          <t>紀土 大吟醸 720ml</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10363</v>
+        <v>10533</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +3054,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2974,11 +3074,12 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3400</v>
+        <v>2100</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>奥深くも優しい…。繰り返し飲みたくなる味わい「雄町」！</t>
+          <t>山田錦を35％まで磨いた贅沢なお酒
+綺麗で優しい味わいの食中酒</t>
         </is>
       </c>
       <c r="L31" t="b">
@@ -2997,38 +3098,32 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>造好適米「雄町」を使用した純米吟醸酒です。
-雄町米で醸したお酒は、
-穏やかながら味わい深いお酒に仕上がります。
-柔らかい口当たり、
-コクと香りのバランスがとれた逸品で、奥深くも優しい…。
-繰り返し飲みたくなる味わいです。</t>
+          <t xml:space="preserve">国内産の山田錦を35％まで精白して仕込まれた、長期低温醗酵を経て醸された平和酒造が誇る”自信”の大吟醸酒です。その実力は国内最大級の日本酒コンテストである「IWC」インターナショナルワインチャレンジジにおいて、吟醸酒・大吟醸酒の部で2014年と2015年に、リージョナルトロフィーを連続受賞するなど輝かしい実績を残しています。このトロフィーは総数876銘柄中、10銘柄のみだけ受賞できる最高の栄誉でもあります。
+平和酒造の大吟醸クラスに相応しい、リンゴやサクランボなどのフルーツ系の吟醸香が飲み手の鼻腔で優しく華開きます。口に含んでみると「紀土」の特徴である優しい味わいと、上品でとても綺麗な旨味を心地よく感じさせてくれます。また、”食”との相性を大切にしている酒質の大吟醸のため、料理との絶妙な味のバランスが端正で軽い口当たりに導いてくれる、究極の食中酒です！
+この絶品ともいえる『紀土　大吟醸』は、繊細な和食料理とも抜群の相性があり、特に和食料理店において”美味なる料理に美味い酒”といった贅沢を嗜まれてはいかがでしょうか。
+</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10363.jpg</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>純米吟醸</t>
-        </is>
-      </c>
+          <t>https://www.af-1.jp/bottle/10532.jpg</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町 無濾過生</t>
+          <t>紀土 特別純米 カラクチキッド</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 雄町 無濾過生 720ml</t>
+          <t>紀土 特別純米 カラクチキッド 1.8L</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10364</v>
+        <v>11317</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3037,7 +3132,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3057,11 +3152,11 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>奥深くも優しい…。繰り返し飲みたくなる味わい「雄町」！</t>
+          <t>ふんわりカラクチ心地よい刺激！</t>
         </is>
       </c>
       <c r="L32" t="b">
@@ -3080,38 +3175,38 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>造好適米「雄町」を使用した純米吟醸酒です。
-雄町米で醸したお酒は、
-穏やかながら味わい深いお酒に仕上がります。
-柔らかい口当たり、
-コクと香りのバランスがとれた逸品で、奥深くも優しい…。
-繰り返し飲みたくなる味わいです。</t>
+          <t>従来の紀土らしい柔らかみと、辛口ながらも旨みのある味わい。
+両方の魅力を楽しんでいただけます。
+口に含むと、まず紀土らしい、やわらかく甘みのある口あたりが感じられます。
+「いつもの紀土かな？」と思っていると途中から舌に甘みがのり、
+そのまま舌を心地良く刺激しながらスッときれいにキレていきます。
+色々なお食事と合わせて頂けたらと思います。</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10363.jpg</t>
+          <t>https://www.af-1.jp/bottle/11317.jpg</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸温め酒燗 雄町</t>
+          <t>紀土 特別純米 カラクチキッド</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸温め酒燗 雄町 1.8L</t>
+          <t>紀土 特別純米 カラクチキッド 720ml</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10418</v>
+        <v>11318</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3120,7 +3215,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3140,12 +3235,11 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>3400</v>
+        <v>1050</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>常温〜熱燗まで全ての味わいを考慮
-燗冷ましに至るまで美味しい！</t>
+          <t>ふんわりカラクチ心地よい刺激！</t>
         </is>
       </c>
       <c r="L33" t="b">
@@ -3164,38 +3258,38 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve">この商品は特定地域の岡山県赤磐地区の皆様と一緒に作った「雄町」を贅沢に使用し「生もと」仕込みにて醸した「温め酒」の純米吟醸酒でございます。
-「生もと」仕込みにより深みを増した味わいは、夏を越すことで更なるステージへと熟成されてゆきます。
-グラスに注ぎ常温に近い状態にまで温まることにより、味わいの膨らみやお米の優しさ、日本酒だけが纏える香り、甘み、雅な質感など日本酒の素晴らしさを十分にお伝えできるかと存じます。
-また、ひと手間かけ丁寧にぬる燗にまで温めていただくことにより一層身近に本来の姿を感じることが出来るかと存じます。
-我々「鳳凰美田」は皆様に日本酒をもっともっと楽しんでいただきたいと考えており、日本酒には大きな可能性が広がっていると感じております。
-</t>
+          <t>従来の紀土らしい柔らかみと、辛口ながらも旨みのある味わい。
+両方の魅力を楽しんでいただけます。
+口に含むと、まず紀土らしい、やわらかく甘みのある口あたりが感じられます。
+「いつもの紀土かな？」と思っていると途中から舌に甘みがのり、
+そのまま舌を心地良く刺激しながらスッときれいにキレていきます。
+色々なお食事と合わせて頂けたらと思います。</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10418.jpg</t>
+          <t>https://www.af-1.jp/bottle/11317.jpg</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 〜芳 PREMIUM〜</t>
+          <t>紀土 特別純米酒 雄町</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 〜芳 PREMIUM〜 720ml</t>
+          <t>紀土 特別純米酒 雄町 1.8L</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12346</v>
+        <v>12087</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3204,7 +3298,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3224,12 +3318,11 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>18000</v>
+        <v>2600</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>田んぼに宿る魂、
-酒米を通じた物語。</t>
+          <t>「紀土」が醸す雄町。  雄町ならではの豊かで深い味わい。</t>
         </is>
       </c>
       <c r="L34" t="b">
@@ -3248,36 +3341,36 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve">限定的にお披露目される「プレミアム」鳳凰美田から遂に「芳」が登場。「芳」は多くの賞も受賞されている農家会のスター「藤田芳」さんが造る無農薬の酒米を使った人気酒。その躍動感溢れるお米のパワーに圧倒される味わいを持っています。今回はその藤田芳さんが造る酒造米"富の香"を使ったプレミアム鳳凰美田が出来上がりました。
-氷温でじっくりと貯蔵され、濃厚な旨みを持つこの芳は含んだ瞬間からその旨さが広がります。
-小林酒造と藤田芳さんの思いが詰まった極上の旨みを是非感じて下さい。
-</t>
+          <t>遂に、紀土からあの人気米「雄町」を使用した限定酒が販売となります。
+多くのヒット商品を持ち、全国にも知られている和歌山県の地酒ですが、意外にもこれまで雄町を使用したお酒はありませんでした。雄町といえば、力強い旨み、野性味、ボリュームのある味わい、長い余韻などが特徴で、「オマチスト」と呼ばれる熱狂的なファンの方もいるほど人気のお米。
+紀土らしい、華やかながらも落ち着きのある吟醸香が鼻腔を刺激します。
+雄町の美点でもある、強い旨みが存分に表現されていて、その中には熟したバナナのような甘みも感じます。また、酸による余韻のキレ方も見事で、程良い余韻を残しながらスゥーっとフェードアウトしていきます。軽やかで、優しい飲み口ながらも、雄町のパワフルさを感じる絶妙の造り。</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/12346.jpg</t>
+          <t>https://www.af-1.jp/bottle/12087.jpg</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 Gold Phoenix</t>
+          <t>紀土 特別純米酒 雄町</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 Gold Phoenix 750ml</t>
+          <t>紀土 特別純米酒 雄町 720ml</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10327</v>
+        <v>12088</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3286,7 +3379,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3306,13 +3399,11 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>伝説の鳥・不死鳥-フェニックス
-(phoenix)を名に冠する
-闇から闇に消える酒・・・。</t>
+          <t>「紀土」が醸す雄町。  雄町ならではの豊かで深い味わい。</t>
         </is>
       </c>
       <c r="L35" t="b">
@@ -3331,40 +3422,36 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve">永遠の集大成、手塚治の『火の鳥』―。
-小生は幼い頃、かじりついて読み入った思い出があります。
-永遠の時を生きるという伝説の鳥・フェニックス“phoenix”暗闇に突然現れて、絢爛に輝き、また闇に消えていく・・・。
-まさしくそんなイメージでしょうか、、、
-750ｍｌサイズ（通常日本酒は720ｍｌサイズ）で登場、イタリア産モンティエロッサ製のシャンパンボトルを使用。
-純米大吟醸の火入れタイプ。
-原料米に「幻の米」愛山が使われていて、稀少性の高いお酒です。。
-</t>
+          <t>遂に、紀土からあの人気米「雄町」を使用した限定酒が販売となります。
+多くのヒット商品を持ち、全国にも知られている和歌山県の地酒ですが、意外にもこれまで雄町を使用したお酒はありませんでした。雄町といえば、力強い旨み、野性味、ボリュームのある味わい、長い余韻などが特徴で、「オマチスト」と呼ばれる熱狂的なファンの方もいるほど人気のお米。
+紀土らしい、華やかながらも落ち着きのある吟醸香が鼻腔を刺激します。
+雄町の美点でもある、強い旨みが存分に表現されていて、その中には熟したバナナのような甘みも感じます。また、酸による余韻のキレ方も見事で、程良い余韻を残しながらスゥーっとフェードアウトしていきます。軽やかで、優しい飲み口ながらも、雄町のパワフルさを感じる絶妙の造り。</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10327.jpg</t>
+          <t>https://www.af-1.jp/bottle/12087.jpg</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 Silver Phoenix</t>
+          <t>紀土 無量山 純米</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 Silver Phoenix 1.5L</t>
+          <t>紀土 無量山 純米 720ml</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10326</v>
+        <v>11786</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3373,7 +3460,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3393,13 +3480,11 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>10000</v>
+        <v>1900</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>伝説の鳥・不死鳥-フェニックス
-(phoenix)を名に冠する
-闇から闇に消える酒・・・。</t>
+          <t>紀土が込めた日本酒への想いそれは時代を超えて。</t>
         </is>
       </c>
       <c r="L36" t="b">
@@ -3418,38 +3503,38 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve">永遠の集大成、手塚治の『火の鳥』―。
-小生は幼い頃、かじりついて読み入った思い出があります。永遠の時を生きるという伝説の鳥・フェニックス“phoenix”暗闇に突然現れて、絢爛に輝き、また闇に消えていく・・・。まさしくそんなイメージでしょうか、、、
-1.5Ｌのマグナムサイズで登場、イタリア産モンティエロッサ製のシャンパンボトルを使用。
-フルーティーで、「パイナップル」のような風味と味わいを感じさせられます。無濾過生原酒のパワー溢れるフルーティーな香りを十分にお楽しみください。原料米に「幻の米」愛山が使われていて、稀少性の高いお酒です。
-※冬季限定入荷
-</t>
+          <t>「無量山」は紀土の中でも最高ランクの造りを施したこだわりのお酒。今、その「無量山」の名を受け継いだ極上のお酒が出来上がりました。
+"紀土"といえば、今や全国でも引く手数多の人気銘柄。あらゆる層から評価の高い、飲み手に寄り添うお酒です。
+しかし、造り手の意志を宿した極みのお酒、そんなお酒を造りたい。それは、平和酒造が自らのために造る日本酒。その思いはいつしか抑えきれないものになっていたそうです。念願叶い、平和酒造の考える日本一と思えるお酒が完成しました。それが、この「無量山」シリーズから発売される「紀土」だったのです。
+香りは、紀土のお酒らしい、爽やかな果実香を含んでいます。ただ、それは主役を担う香りではなく、炊きたてのお米のようなふくよかな香りの中にあり、繊細さを含んだ香り。含むと、艶やかな飲み口と共に、まろやかな甘みが流れ込んできます。
+清涼感のある酸味もそれと同時か、やや遅れて姿を現し、ふくらみのある丸い旨みをより際立たせます。ゆっくりと消えていく持続感のある酸味がほどよい充実感をもたらしてくれます。冷から、少し低めの常温（室温）くらいがこのお酒の最良の温度でしょう。
+特Ａ地区の最高峰の山田錦と紀州の綺麗な水、そして和歌山を代表する紀土との出会いが、美しい酒を生み出しました。</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10326.jpg</t>
+          <t>https://www.af-1.jp/bottle/11786.jpg</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 SUPREME ~2018~</t>
+          <t>紀土 無量山 純米 雄町</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 SUPREME ~2018~ 750ml</t>
+          <t>紀土 無量山 純米 雄町 720ml</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12049</v>
+        <v>12106</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3458,7 +3543,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3478,11 +3563,11 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>20000</v>
+        <v>2600</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>極みの鳳凰美田最高の山田錦</t>
+          <t>無量山の雄町には上品さと力強さがあります。</t>
         </is>
       </c>
       <c r="L37" t="b">
@@ -3501,38 +3586,36 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t xml:space="preserve">最高峰の鳳凰美田となるプレミアムシリーズ「SUPREME」が始動。
-特A地区の山田錦を100%使用し、さらに超高精米30%。
-しかもこの山田錦はただの特A地区山田錦ではなく、小林酒造が持つ広大な圃場の中でも、特に出来の良い圃場を厳選。
-そこから収穫された山田錦のみを使用するというコダワリよう。
-鳳凰美田というお酒の総てが集約された極上の一本となっています。
-</t>
+          <t>紀土のプレミアムライン、「無量山」シリーズより「雄町」が登場。
+雄町とは米の名で、野性味あふれる、濃厚な旨みを持つお米。全国でも特にファンの多い酒米です。雄町の特徴でもある幅の厚い味わいが、紀土らしい優しさに包まれ、まろやかでふくらみある旨みが格別の味わい。酒造の持つ美点を最大限に活かした雄町はひと味もふた味も違います。
+どっしり濃厚な味わいを残しつつ、随所に柔らかさを感じます。フィニッシュも酸によりよくキレ、絶妙なバランスを持っています。
+※冬季限定品</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/12049.jpg</t>
+          <t>https://www.af-1.jp/bottle/12106.jpg</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 火入れ</t>
+          <t>紀土 無量山 純米吟醸</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 火入れ 1.8L</t>
+          <t>紀土 無量山 純米吟醸 720ml</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10525</v>
+        <v>11787</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3541,7 +3624,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3561,12 +3644,11 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>パッとはじけるような吟醸香。
-鳳凰美田を代表する逸品です。</t>
+          <t>これぞ世界の頂点！！ IWC最優秀賞「チャンピオン・サケ」受賞！！</t>
         </is>
       </c>
       <c r="L38" t="b">
@@ -3585,39 +3667,56 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve">亀粋は、“亀の尾”から選抜育種を重ねて変異種を開発育成し、平成５年農林省新品種登録（No3632）に成功した変異株から選抜された酒米です。
-果実のような香り、しっかりとした米の旨味とほど良いコク。
-鳳凰美田を代表する逸品です。
-凝縮感のある濃密な味わいの中で、口中にパッとはじけるような吟醸香があり。
-それでいて、幅広い味わいで、ふくよかな香りを上手に繋ぎとめながら、香味の立体感を作り出している。
-常温、冷酒どちらでも楽しめる最高の逸品です。
-</t>
+          <t>"紀土"といえば、全国でも引く手数多の人気銘柄。
+あらゆる層から高い支持を得ている、飲み手に寄り添うお酒です。
+ 「より造り手の意志を宿した極みのお酒を造りたい。」蔵人達の思いはいつしか抑えきれないものとなり、平和酒造の考える日本一と思えるお酒、最高ランクの造りを施したこだわりのお酒が完成しました。
+ミネラル感を含んだ清爽な香り
+空気に触れ、しばらくすると、お米のふくよかな香りも漂ってきます。
+ビロードのように、どこまでもシルキーな飲み口は、中々感じることのできない
+口当たり。
+ 甘みは薄玻璃のように舌全体を優しく包み込み、キメの細かい酸味を感じます。
+アフターにも、酸味と甘みをわずかに残し、最初から最後まで、その味わいに様々な
+表情が表れます。繊細ながら旨みを多分に含んだ美麗な味わい。
+2020年は「IWC（インターナショナル・ワイン・チャレンジ）」において最優秀賞「チャンピオン・サケ」を受賞！！
+これこそが平和酒造が追い求めた"日本一の酒"の味わい。世界が認めた"世界一の酒"の味わいです！！
+ 『IWC』とは…
+「インターナショナル・ワイン・チャレンジ（IWC）」。
+ 毎年ロンドンで行われる、世界で最も権威があり、もっとも大きな影響力をもつと言われるワイン品評会。
+SAKE部門の受賞は国内外で大きく取り上げられ、その功績を認められる重要なイベントとなっています。
+ 『IWC「チャンピオン・サケ」』とは…
+日本酒部門は9つのカテゴリーに分かれ、ブラインドテイスティングによる審査が行われます。
+その各カテゴリーのトロフィー受賞銘柄から、さらに優秀な１銘柄だけに最優秀賞「チャンピオン・サケ」の称号が与えられ、2020年、その栄誉ある最高賞「チャンピオン・サケ」を獲得したのが「紀土　無量山　純米吟醸」！！
+ 世界中からエントリーした美味い日本酒、総計1401銘柄の中から、「今、最も美味い日本酒」として頂点に選ばれました。
+Brewer of the year(ブリュワリー・オブ・ザ・イヤー)とは…
+IWC2020「SAKE部門」の中で、エントリーした全ての酒が高評価を得た蔵を「Brewer of the year(ブリュワリー・オブ・ザ・イヤー)」として表彰。
+2年連続で和歌山県の平和酒造が選ばれました。連続受賞は世界初の快挙！！
+ 同平和酒造の「紀土　純米大吟醸　精米歩合四十」も純米大吟醸の部において「純米大吟醸トロフィー」を受賞しています。</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10525.jpg</t>
+          <t>https://www.af-1.jp/bottle/11787.jpg</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米吟醸</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 火入れ</t>
+          <t>紀土 無量山 純米大吟醸 25% (箱入)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 火入れ 720ml</t>
+          <t>紀土 無量山 純米大吟醸 25% 720ml赤ﾗﾍﾞﾙ</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10725</v>
+        <v>12475</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3626,7 +3725,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3646,12 +3745,11 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>パッとはじけるような吟醸香。
-鳳凰美田を代表する逸品です。</t>
+          <t>平和酒造の旨さの結晶人生の節目に</t>
         </is>
       </c>
       <c r="L39" t="b">
@@ -3670,18 +3768,20 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t xml:space="preserve">亀粋は、“亀の尾”から選抜育種を重ねて変異種を開発育成し、平成５年農林省新品種登録（No3632）に成功した変異株から選抜された酒米です。
-果実のような香り、しっかりとした米の旨味とほど良いコク。
-鳳凰美田を代表する逸品です。
-凝縮感のある濃密な味わいの中で、口中にパッとはじけるような吟醸香があり。
-それでいて、幅広い味わいで、ふくよかな香りを上手に繋ぎとめながら、香味の立体感を作り出している。
-常温、冷酒どちらでも楽しめる最高の逸品です。
-</t>
+          <t>平和酒造の蔵元である山本家は、酒造りを始めたのが1928年。
+その前は『無量山超願寺』というお寺でした。
+その山号である無量山の名前を冠したこのお酒は、
+紀土の最高峰シリーズとなります。
+全てが最高クラスの原材料で醸される無量山、当然最高品質のお米が使用されています。
+兵庫県産特A地区の山田錦が用いられ、その高級米25％まで精米。
+立ち上る香りには華やかさがあり、それは含み香としても口内で開きます。
+ゆらゆらと優雅に旨みの粒をまき散らし、とろけるようにいつの間にか飲み込んでしまっています。
+一級の華やかさと口当たりの良さ、特別な紀土を特別な日にお楽しみ下さい。</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10525.jpg</t>
+          <t>https://www.af-1.jp/bottle/12475.jpg</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3693,16 +3793,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 無濾過生酒</t>
+          <t>紀土 無量山 純米大吟醸 30% 黒ﾗﾍﾞﾙ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 無濾過生酒 1.8L</t>
+          <t>紀土 無量山 純米大吟醸 30% 黒ﾗﾍﾞﾙ 720ml</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10339</v>
+        <v>12105</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3711,7 +3811,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3731,12 +3831,12 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3600</v>
+        <v>20000</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>パッとはじけるような吟醸香。
-鳳凰美田を代表する逸品です。</t>
+          <t>プレミアムなお酒
+最高の紀土</t>
         </is>
       </c>
       <c r="L40" t="b">
@@ -3755,18 +3855,15 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t xml:space="preserve">亀粋は、“亀の尾”から選抜育種を重ねて変異種を開発育成し、平成５年農林省新品種登録（No3632）に成功した変異株から選抜された酒米です。
-果実のような香り、しっかりとした米の旨味とほど良いコク。
-鳳凰美田を代表する逸品です。
-凝縮感のある濃密な味わいの中で、口中にパッとはじけるような吟醸香があり。
-それでいて、幅広い味わいで、ふくよかな香りを上手に繋ぎとめながら、香味の立体感を作り出している。
-常温、冷酒どちらでも楽しめる最高の逸品です。
+          <t xml:space="preserve">平和酒造の持つ醸造技術、蔵人の経験と勘、最高の原料と全てに妥協することなく造り上げられた究極の一本。
+含んだ際の口当たりは山から湧き出る岩清水を彷彿とさせ、味わいは繊細でエレガントな旨みが、はっきりとした存在感を持って、しかし、主張しすぎることなく染み込んできます。
+柔らかな酒質からこぼれ出る旨さはまさに現代の芸術とさえ呼べるかもしれません。
 </t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10339.jpg</t>
+          <t>https://www.af-1.jp/bottle/12105.jpg</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3778,16 +3875,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 無濾過生酒</t>
+          <t>紀土 無量山 純米大吟醸</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 亀粋 無濾過生酒 720ml</t>
+          <t>紀土 無量山 純米大吟醸 720ml</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10691</v>
+        <v>11811</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3893,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3816,12 +3913,11 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>パッとはじけるような吟醸香。
-鳳凰美田を代表する逸品です。</t>
+          <t>平和酒造の思いを宿した 極みの純米大吟醸！！</t>
         </is>
       </c>
       <c r="L41" t="b">
@@ -3840,18 +3936,22 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t xml:space="preserve">亀粋は、“亀の尾”から選抜育種を重ねて変異種を開発育成し、平成５年農林省新品種登録（No3632）に成功した変異株から選抜された酒米です。
-果実のような香り、しっかりとした米の旨味とほど良いコク。
-鳳凰美田を代表する逸品です。
-凝縮感のある濃密な味わいの中で、口中にパッとはじけるような吟醸香があり。
-それでいて、幅広い味わいで、ふくよかな香りを上手に繋ぎとめながら、香味の立体感を作り出している。
-常温、冷酒どちらでも楽しめる最高の逸品です。
-</t>
+          <t>"紀土"といえば、全国でも引く手数多の人気銘柄。
+あらゆる層から高い支持を得ている、飲み手に寄り添うお酒です。
+「より造り手の意志を宿した極みのお酒を造りたい。」蔵人達の思いはいつしか抑えきれないものとなり、平和酒造の考える日本一と思えるお酒、最高ランクの造りを施したこだわりのお酒が完成しました。
+香りは、穏やかながらも芳醇な果実香。米の甘い香りも多分に感じることが出来ます。
+含んでみると、一切の無駄な部分がそぎ落とされた、さらりとした岩清水のような綺麗な口当たり。
+シャキッとした酸味と、その強めの酸をものともしない溢れんばかりの旨み。
+口内を滑るように転がるエレガントな舌触り。後味は僅かな苦みを伴いながら、
+緩やかな残像を残しつつフェードアウトしていきます。
+同無量山の純米吟醸は「2020年IWC（インターナショナル・ワイン・チャレンジ）」において最優秀賞「チャンピオン・サケ」を受賞。
+平和酒造が追い求めた"日本一の酒"の味わい、世界が認めた"世界一の酒"の味わいを、この純米大吟醸からも感じます。
+特Ａ地区の最高峰の山田錦と紀州の綺麗な水が生み出した、和歌山を代表する美しい酒を、ぜひ一度ご賞味ください。</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10339.jpg</t>
+          <t>https://www.af-1.jp/bottle/11811.jpg</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3863,16 +3963,16 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 山田錦 磨き50 火入れ</t>
+          <t>紀土 無量山 純米大吟醸35%</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 山田錦 磨き50 火入れ 1.8L</t>
+          <t>紀土 無量山 純米大吟醸35% 720ml</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10711</v>
+        <v>12111</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3881,7 +3981,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3901,13 +4001,12 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>山田錦100％使用、
-磨き50％（純米大吟醸クラス）で、
-なんと価格が、3,000円！</t>
+          <t>洗礼された上品さ
+新たに最高峰シリーズの登場です</t>
         </is>
       </c>
       <c r="L42" t="b">
@@ -3926,17 +4025,19 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t xml:space="preserve">酒造好適米の「山田錦」を精米歩合50％まで磨きあげ、低温でじっくりと醸した純米大吟醸です。
-旨味ふくらみ味わいと非常にバランスの良いお酒です。
-穏やかでほのかに漂うフルーティーな吟醸香、口当たりは柔らかく、
-山田錦らしいふくらみのある香りと、
-幅のある豊かな味わいで、非常にコストパフォーマンスが高いお酒です。
+          <t xml:space="preserve">平和酒造の蔵元である山本家は、酒造りを始めたのが1928年。
+その前は『無量山超願寺』というお寺でした。
+その山号である無量山の名前を冠したこのお酒は、
+紀土シリーズの最高峰シリーズとなります。
+最高水準の山田錦を35％まで精米を行い、和歌山の清らかな湧水で醸しました。
+すみずみまで蔵人の想いが届くように、丁寧に、慎重に醸しました。
+洗練された上品さと繊細さ、その味わいをお楽しみください。
 </t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10711.jpg</t>
+          <t>https://www.af-1.jp/bottle/12111.jpg</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3948,16 +4049,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 にごりSPECIAL</t>
+          <t>紀美野 純米</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 にごりSPECIAL 720ml</t>
+          <t>紀美野 純米 1.8L</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12121</v>
+        <v>10848</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3966,7 +4067,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3986,13 +4087,11 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2000</v>
+        <v>2370</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>濃厚でクリーミー、
-特別な赤判！
-高級な白ワインを思わせる香り</t>
+          <t>フルーティーな中に感じられる凛とした米の味安いのに旨いクセになる味</t>
         </is>
       </c>
       <c r="L43" t="b">
@@ -4011,38 +4110,36 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵庫県産の山田錦を40%まで磨き、「雫取り」で一本一本丹精込めて瓶詰めした、鳳凰美田の中でも特に高級酒に当たる「赤判」。
-その「赤判」の搾りたてでおりがたっぷりと入った特別限定酒。
-アロマやアプリコットのように高級な白ワインを思わせる香り、おりがらみの甘味が旨味と合い重なって、濃醇でクリーミーな飲み口。
-なんと値段も2,000円とスペシャル価格！
-こちらは本数が限られておりますのでお早めに☆
-</t>
+          <t>甘いリンゴを思わせるような吟醸香。
+その期待を裏切らないすっきりとした飲み口。
+味わいは軽いですが、飲み進めるとしっかりと米の旨みも感じることができ、
+段々クセになってくる深みも感じられます。</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/12121.jpg</t>
+          <t>https://www.af-1.jp/bottle/10848.jpg</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 火入れ</t>
+          <t>紀美野 純米吟醸</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 火入れ 1.8L</t>
+          <t>紀美野 純米吟醸 1.8L</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10552</v>
+        <v>10849</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4051,7 +4148,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4071,13 +4168,11 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>「山田錦　磨き40％」の純米大吟醸
-ゴージャスで、
-高級感のある吟醸香。</t>
+          <t>上品、キレ、綺麗な酒質と三拍子揃ったお酒</t>
         </is>
       </c>
       <c r="L44" t="b">
@@ -4096,36 +4191,35 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵庫県産の山田錦を40％精米によるなめらかさ、純米大吟醸酒の気品ある香りをお楽しみください。
-芳香に富んだマスクメロンのようなインパクトのある「華やか」で、まるで「香水」のような、ゴージャスで高級感のある吟醸香。
-口に含むと、この上なく「さわやか」で、「きれい」な味わいを持ち、日本酒の最高峰と言える「絶品中の絶品」です。
-</t>
+          <t>通常二回火入れを行うところ、瓶詰めの一回の火入れで、生詰めした純米吟醸酒。
+まったくクセのないお酒で日本酒が苦手な方でグイグイと杯が進むでしょう。
+同蔵の持つ特徴が良く出たお酒で、後々感じられる米の持つ旨みが溢れてきます。</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10552.jpg</t>
+          <t>https://www.af-1.jp/bottle/10849.jpg</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米吟醸</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 火入れ</t>
+          <t>純真無垢 純米大吟醸</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 火入れ 720ml</t>
+          <t>純真無垢 純米大吟醸 1.8L</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10496</v>
+        <v>10951</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4134,7 +4228,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4154,13 +4248,11 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>3000</v>
+        <v>2730</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>「山田錦　磨き40％」の純米大吟醸
-ゴージャスで、
-高級感のある吟醸香。</t>
+          <t>「純米大吟醸」「全量山田錦」「高野山の伏流水」この価格、間違いではないんです！</t>
         </is>
       </c>
       <c r="L45" t="b">
@@ -4179,15 +4271,19 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵庫県産の山田錦を40％精米によるなめらかさ、純米大吟醸酒の気品ある香りをお楽しみください。
-芳香に富んだマスクメロンのようなインパクトのある「華やか」で、まるで「香水」のような、ゴージャスで高級感のある吟醸香。
-口に含むと、この上なく「さわやか」で、「きれい」な味わいを持ち、日本酒の最高峰と言える「絶品中の絶品」です。
-</t>
+          <t>全量山田錦を使用した、高パフォーマンスなスーパー酒。
+飲み口は柔らかく、非常にすっきりとした口当たり。
+平和酒造さんの日本酒は「紀土」が有名ですが、
+決して「紀土以外」の酒ではありません。
+「紀土」よりも「純真無垢」の方が好みだという方も
+たくさんいらっしゃいます。
+世界遺産高野山の伏流水で仕込まれており、
+芳醇でなめらかな香りです。</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10552.jpg</t>
+          <t>https://www.af-1.jp/bottle/10951.jpg</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4199,16 +4295,16 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 無濾過生酒</t>
+          <t>紀土 無量山 純米大吟醸 20%</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 無濾過生酒 1.8L</t>
+          <t>紀土 無量山 純米大吟醸 20% 720ml</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10336</v>
+        <v>12880</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4217,7 +4313,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4237,13 +4333,12 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>「山田錦　磨き40％」の純米大吟醸
-ゴージャスで、
-高級感のある吟醸香。</t>
+          <t>世界王者の貫録を見せつける
+平和酒造最高精米酒</t>
         </is>
       </c>
       <c r="L46" t="b">
@@ -4262,15 +4357,14 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵庫県産の山田錦を40％精米によるなめらかさ、純米大吟醸酒の気品ある香りをお楽しみください。
-芳香に富んだマスクメロンのようなインパクトのある「華やか」で、まるで「香水」のような、ゴージャスで高級感のある吟醸香。
-口に含むと、この上なく「さわやか」で、「きれい」な味わいを持ち、日本酒の最高峰と言える「絶品中の絶品」です。
-</t>
+          <t>平和酒造の蔵元である山本家は、酒造りを始めたのが1928年。その前は『無量山超願寺』というお寺でした。その山号である無量山の名前を冠したこのお酒は、紀土の最高峰シリーズとなります。全てが最高クラスの原材料で醸される無量山、当然最高品質のお米が使用されています。
+最高水準である兵庫県特A地区産「山田錦」を20％まで丁寧に精米し、地元和歌山の清らかで滑らかな湧き水で醸しました。これは平和酒造の中で最も高精米の商品になります。洋梨やメロン、巨峰のような果物味を感じるリッチで瑞々しい香りは嗅ぐだけで、すでに味わったかのような満足感を得られます。20％という高精米と平和酒造の技術が合わさり、これまで体験したことのない透明感のある味わいを楽しめます。シルクを思わせる滑らかさが喉を通り、じんわりと奥行きのあるきめ細かな甘みは存在感を放ちます。
+超限定商品です。発売本数はなんとたったの50本のみ。【IWC 2020(インターナショナル・ワイン・チャレンジ)】にて2年連続「Sake Brewer of the year」に選ばれた平和酒造のその貫録を見せつける最高級酒になります。世界王者が醸す極み酒。是非とも特別な日、特別な人とお楽しみ下さい。</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10336.jpg</t>
+          <t>https://www.af-1.jp/bottle/12880.jpg</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4282,16 +4376,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 無濾過生酒</t>
+          <t>紀土 Miyazaki's 純米吟醸 雄町 生</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 赤判 無濾過生酒 720ml</t>
+          <t>紀土　Miyazaki's 純米吟醸 雄町 生 1.8L</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10444</v>
+        <v>13003</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4300,7 +4394,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4320,13 +4414,11 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>「山田錦　磨き40％」の純米大吟醸
-ゴージャスで、
-高級感のある吟醸香。</t>
+          <t>平和酒造の新しい取り組み！「杜氏資格保有者シリーズ」第一弾！！</t>
         </is>
       </c>
       <c r="L47" t="b">
@@ -4345,36 +4437,41 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵庫県産の山田錦を40％精米によるなめらかさ、純米大吟醸酒の気品ある香りをお楽しみください。
-芳香に富んだマスクメロンのようなインパクトのある「華やか」で、まるで「香水」のような、ゴージャスで高級感のある吟醸香。
-口に含むと、この上なく「さわやか」で、「きれい」な味わいを持ち、日本酒の最高峰と言える「絶品中の絶品」です。
-</t>
+          <t>平和酒造に新卒採用で入社した社員が酒造りの技術を磨き、2019年・2020年にそれぞれ一名が南部杜氏資格を取得。
+彼らが手掛けた特別醸造酒をお届けする、平和酒造の新たな取り組み「杜氏資格保有者シリーズ」の第一弾がこちらの「Miyazaki's 純米吟醸 雄町 生」です。
+「これまでの紀土の純吟で、最高に繊細で上品なお酒」を目標に、醸造家 宮崎啓 氏が新しい仕込みを試した純米吟醸生酒。
+雄町米のクリアな味わい。リンゴや洋梨を思わせる上品な香りに、優しく広がる繊細な甘みが特徴です。
+自然豊かな和歌山で暮らす中、人間自身も自然の一つの要素と感じ、「造り手もまたテロワール（風土）」と育んできた熱い情熱を表現した「新しい紀土」をぜひ味わってみてください。
+ 醸造家 宮崎啓
+2009年平和酒造入社。福岡県出身。
+蔵人制から新卒採用制へ移行する初期世代として様々な経験を重ね、2019年南部杜氏資格を取得。
+製造の要として世界一のお酒を目指し、蔵のチーム力強化に励んでいる。</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10336.jpg</t>
+          <t>https://www.af-1.jp/bottle/13003.jpg</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>純米大吟醸</t>
+          <t>純米吟醸</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>鳳凰美田 大吟醸 鑑評会出品酒</t>
+          <t>紀土 Miyazaki's 純米吟醸 雄町 生</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>鳳凰美田 大吟醸 鑑評会出品酒 500ml</t>
+          <t>紀土　Miyazaki's 純米吟醸 雄町 生720ml</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10385</v>
+        <v>13004</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4383,7 +4480,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4403,12 +4500,11 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>鑑評会出品酒！
-蔵の宝物と呼ぶに相応しい酒。</t>
+          <t>平和酒造の新しい取り組み！「杜氏資格保有者シリーズ」第一弾！！</t>
         </is>
       </c>
       <c r="L48" t="b">
@@ -4427,35 +4523,41 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t xml:space="preserve">鳳凰美田シリーズの最高峰に位置する大吟醸の超限定バージョン鑑評会出品酒です。
-大吟醸のもろみを袋吊りの手法により雫取りした原酒を斗瓶に囲い低温熟成させ、それを一回火入れの瓶燗にて丁寧に仕上げました。
-まさに蔵の宝物と呼ぶのに相応しいお酒です。
-シリーズ最高峰の大吟醸らしい超華やかでフルーティーな香味に、
-山田錦特有のインパクトのある味わいと、品格、貴賓、ゴージャスすべてを兼ね備えた最高級の味わいに仕上がっています。
-当店への入荷もほんの僅かであり市場に出る事自体稀な超レアなお酒です。
-</t>
+          <t>平和酒造に新卒採用で入社した社員が酒造りの技術を磨き、2019年・2020年にそれぞれ一名が南部杜氏資格を取得。
+彼らが手掛けた特別醸造酒をお届けする、平和酒造の新たな取り組み「杜氏資格保有者シリーズ」の第一弾がこちらの「Miyazaki's 純米吟醸 雄町 生」です。
+「これまでの紀土の純吟で、最高に繊細で上品なお酒」を目標に、醸造家 宮崎啓 氏が新しい仕込みを試した純米吟醸生酒。
+雄町米のクリアな味わい。リンゴや洋梨を思わせる上品な香りに、優しく広がる繊細な甘みが特徴です。
+自然豊かな和歌山で暮らす中、人間自身も自然の一つの要素と感じ、「造り手もまたテロワール（風土）」と育んできた熱い情熱を表現した「新しい紀土」をぜひ味わってみてください。
+ 醸造家 宮崎啓
+2009年平和酒造入社。福岡県出身。
+蔵人制から新卒採用制へ移行する初期世代として様々な経験を重ね、2019年南部杜氏資格を取得。
+製造の要として世界一のお酒を目指し、蔵のチーム力強化に励んでいる。</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10385.jpg</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/13003.jpg</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>純米吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>鳳凰美田 大吟醸 別誂至高</t>
+          <t>本紀土 純米吟醸酒</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>鳳凰美田 大吟醸 別誂至高 1.8L</t>
+          <t>本紀土 純米吟醸酒 1.8L</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10368</v>
+        <v>13255</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4464,7 +4566,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4484,13 +4586,12 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>10000</v>
+        <v>2560</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ゆるぎなく「そこにある」という
-凛とした姿、
-毅然とした佇まい。</t>
+          <t>紀土が考える新たなる
+日本酒の本質</t>
         </is>
       </c>
       <c r="L49" t="b">
@@ -4509,34 +4610,35 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵庫県産山田錦特Aを35%まで研きこんだ、しずく絞り斗瓶取りの大吟醸原酒。
-『別誂至高』という名の通り、そこには凛とした姿や、ゆるぎなく「そこにある」という毅然とした佇まいを感じさせます。
-最大限に米の力を抽出した高らかな香り、豊かな旨みも引きだし、そして超高精米のお酒だけが持つことを許される雑味の全くない、気品ある味わい。
-自分で飲むにも良し、贈り物に使われるもよし、内容も、見た目も、味も非の打ち所のない日本酒。
-一度の仕込みで生産できる本数は極少量となっているため、次回の入荷が先になってしまうことも往々にあります。
-</t>
+          <t>今や世界中から引く手数多となり、その柔らかな飲み口と優しい味わいから人気を博す『紀土』。そんな紀土からこの度新たなるラインナップが定番商品として登場します。その名も『本紀土』。本紀土の『本』は、本マグロや本わさびと言った言葉に使われているような、物事の本質を意味しているそうで、紀土の考えるこれからの日本酒の新しい姿であり、日本酒本来の旨さを幅広い人に愉しんでもらえるようにという思いが込められているそうです。
+今までの紀土との大きな違いはアルコール度数にあり、この『本紀土』は13度と日本酒にしては非常に低アルコールの部類になっています。そのため、飲み心地もより柔らかく、日本酒にあまり馴染みのない方でも飲みやすい味わいを実現し、紀土の仕込み水の柔らかさや水の美しさに重きを置いて表現しているとのこと。ですが、ただ綺麗で低アルコールというだけではなく、しっかりと紀土ならではといえる柔らかな甘みや味わいの膨らみを感じることができます。後味にスッとキレるシャープさも持ち合わせ、紀土らしい魅力、さらには日本酒の魅力がしっかりと詰まっています。
+日本酒という広い世界への入り口をお探しの方やいつもの日本酒のアルコール度数は少しキツイ、という方に特におすすめの一本です。</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10368.jpg</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/13255.jpg</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>純米吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>鳳凰美田 大吟醸 別誂至高</t>
+          <t>本紀土 純米吟醸酒</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>鳳凰美田 大吟醸 別誂至高 720ml</t>
+          <t>本紀土 純米吟醸酒 720ml</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10369</v>
+        <v>13256</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4545,7 +4647,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4565,13 +4667,12 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>5000</v>
+        <v>1280</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ゆるぎなく「そこにある」という
-凛とした姿、
-毅然とした佇まい。</t>
+          <t>紀土が考える新たなる
+日本酒の本質</t>
         </is>
       </c>
       <c r="L50" t="b">
@@ -4590,34 +4691,35 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t xml:space="preserve">兵庫県産山田錦特Aを35%まで研きこんだ、しずく絞り斗瓶取りの大吟醸原酒。
-『別誂至高』という名の通り、そこには凛とした姿や、ゆるぎなく「そこにある」という毅然とした佇まいを感じさせます。
-最大限に米の力を抽出した高らかな香り、豊かな旨みも引きだし、そして超高精米のお酒だけが持つことを許される雑味の全くない、気品ある味わい。
-自分で飲むにも良し、贈り物に使われるもよし、内容も、見た目も、味も非の打ち所のない日本酒。
-一度の仕込みで生産できる本数は極少量となっているため、次回の入荷が先になってしまうことも往々にあります。
-</t>
+          <t>今や世界中から引く手数多となり、その柔らかな飲み口と優しい味わいから人気を博す『紀土』。そんな紀土からこの度新たなるラインナップが定番商品として登場します。その名も『本紀土』。本紀土の『本』は、本マグロや本わさびと言った言葉に使われているような、物事の本質を意味しているそうで、紀土の考えるこれからの日本酒の新しい姿であり、日本酒本来の旨さを幅広い人に愉しんでもらえるようにという思いが込められているそうです。
+今までの紀土との大きな違いはアルコール度数にあり、この『本紀土』は13度と日本酒にしては非常に低アルコールの部類になっています。そのため、飲み心地もより柔らかく、日本酒にあまり馴染みのない方でも飲みやすい味わいを実現し、紀土の仕込み水の柔らかさや水の美しさに重きを置いて表現しているとのこと。ですが、ただ綺麗で低アルコールというだけではなく、しっかりと紀土ならではといえる柔らかな甘みや味わいの膨らみを感じることができます。後味にスッとキレるシャープさも持ち合わせ、紀土らしい魅力、さらには日本酒の魅力がしっかりと詰まっています。
+日本酒という広い世界への入り口をお探しの方やいつもの日本酒のアルコール度数は少しキツイ、という方に特におすすめの一本です。</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10368.jpg</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/13255.jpg</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>純米吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>鳳凰美田 雄町 秋田流生もと 純米吟醸 無濾過かすみ本生</t>
+          <t>紀土 あがらの純米大吟醸 (箱入)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>鳳凰美田 雄町 秋田流生もと 純米吟醸 無濾過かすみ本生 1.8L</t>
+          <t>紀土 あがらの純米大吟醸 (箱入) 720ml</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11742</v>
+        <v>11383</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4626,7 +4728,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4646,11 +4748,12 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>南国フルーツを思わせるフルーティーでリッチな味わい！限定醸造の特別な鳳凰美田！</t>
+          <t>蔵人たちと和歌山の米栽培農家の思いが込められた
+あがら(＝私たち)のお酒</t>
         </is>
       </c>
       <c r="L51" t="b">
@@ -4669,38 +4772,36 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>秋田流生もと仕込みを鳳凰美田流に改良アレンジした生もと仕込の純米吟醸酒。
-「生もと」仕込みの特徴でもある酸味を低く抑え、しかも綺麗にかつ上品に、味わいの中に織り込まれた絶品中の絶品です。
-岡山県赤磐地区という特別な大地で造られた雄町を100%使用。 精米55%で「無濾過かすみ本生」です。
-味わいは、フルーティーで、「パイナップル」のような風味が感じられます。
-極わずかにからんだ澱が、ジューシー感を引き出します。
-生き生きとしたパワー溢れる華やかな香りを十分にお楽しみください。</t>
+          <t>あがらとは和歌山の方言で「私たち」という意味です。
+自社田で蔵人たちが栽培した和歌山産の山田錦を35％まで磨き上げた、蔵人達の想いがギュッと詰まった特別なお酒です。
+その情熱に共鳴するかのように、深い味わいと美しい透明感。フレッシュな香りとやわらかな口当たり。微発砲かと思えるほどのシャープな酸とキレ。
+「あがら」の大切で特別な紀土、今年も到着です。</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/11742.jpg</t>
+          <t>https://www.af-1.jp/bottle/11383.jpg</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米大吟醸</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>鳳凰美田 冷卸（ひやおろし）純米吟醸 五百万石</t>
+          <t>紀土 純米 あがらの酒</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>鳳凰美田 冷卸（ひやおろし）純米吟醸 五百万石 1.8L</t>
+          <t>紀土 純米 あがらの酒 1.8L</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10409</v>
+        <v>10845</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4709,7 +4810,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4729,12 +4830,11 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>よりまろやかな、やさしい味わい
-夏の疲れを癒す味わい。</t>
+          <t>蔵人たちと和歌山の米栽培農家の思いが込められたあがら(＝私たち)のお酒</t>
         </is>
       </c>
       <c r="L52" t="b">
@@ -4753,35 +4853,36 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t xml:space="preserve">通常は、瓶貯蔵、瓶燗火入れで管理されるですが、「冷卸」(ひやおろし)商品に限りこの本質をお伝えするためにタンク貯蔵をし、生詰め(一度火入れしてから貯蔵し、瓶詰め前には火入れをしないで出荷されるもの）にてお届けしております。
-五百万石は、より柔らかな味の乗った風味を楽しんで頂けます。
-</t>
+          <t>「紀州の風土」という呼び名から「紀土」という名が付けられています。
+その中でもっとも風土を表しているのが『あがら・・』のシリーズです。
+あえて米の旨味をしっかりと出すために低精米にしています。
+米由来の甘みを是非感じてください。</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10409.jpg</t>
+          <t>https://www.af-1.jp/bottle/10845.jpg</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>鳳凰美田 冷卸（ひやおろし）純米吟醸 山田錦</t>
+          <t>紀土 純米 あがらの酒</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>鳳凰美田 冷卸（ひやおろし）純米吟醸 山田錦 1.8L</t>
+          <t>紀土 純米 あがらの酒 720ｍｌ</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10410</v>
+        <v>11585</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4790,7 +4891,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4810,11 +4911,11 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>よりしっかりしたボディー辛口嗜好の方はこちら</t>
+          <t>蔵人たちと和歌山の米栽培農家の思いが込められたあがら(＝私たち)のお酒</t>
         </is>
       </c>
       <c r="L53" t="b">
@@ -4833,34 +4934,36 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>通常は、瓶貯蔵、瓶燗火入れで管理されるですが、「冷卸」(ひやおろし)商品に限りこの本質をお伝えするためにタンク貯蔵をし、生詰め(一度火入れしてから貯蔵し、瓶詰め前には火入れをしないで出荷されるもの）にてお届けしております。
-熟成によって、より風味豊かに旨みの増した、山田錦らしい力強い味わいをお楽しみいただけます。</t>
+          <t>「紀州の風土」という呼び名から「紀土」という名が付けられています。
+その中でもっとも風土を表しているのが『あがら・・』のシリーズです。
+あえて米の旨味をしっかりと出すために低精米にしています。
+米由来の甘みを是非感じてください。</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10410.jpg</t>
+          <t>https://www.af-1.jp/bottle/10845.jpg</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 夢ささら 生</t>
+          <t>紀土 純米大吟醸 shibata's be cool</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 夢ささら 生 720ml</t>
+          <t>紀土 純米大吟醸 shibata's be cool 1.8L</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>12580</v>
+        <v>12302</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4972,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4889,12 +4992,11 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>栃木県産の「夢ささら」
-で醸された上品な芳醇酒</t>
+          <t>今年の夏はshibataで乗り切れ！</t>
         </is>
       </c>
       <c r="L54" t="b">
@@ -4913,15 +5015,19 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2018年に栃木県で開発された「夢ささら」で醸された純米大吟醸酒。
- 精米歩合は40％とよく磨かれており、果実の甘み、果実のジューシー感があります。
-「夢ささら」は大吟醸向きの酒米で、開発までに要した時間はなんと13年。
- 現在では県内の酒蔵のみの使用に限られている珍しい酒米となっています。次はいつの入荷となるか分からない限定品、お試し下さい。</t>
+          <t>山田錦を50％精米歩合して仕込んだ純米大吟醸の中から、柴田杜氏が夏用に厳選した日本酒「shibata's be cool！」。
+洋梨やライチを思わせる透き通るような香りを感じます。
+爽やかな微発砲と相まって、上品な甘みと酸味を堪能できる暑い季節にぴったりな純米大吟醸酒。
+そんな「紀土 Shibata's be cool！」にオススメのお料理は、
+・鮎の塩焼き
+・ハモの天婦羅
+・焼きナス
+など、さっぱりとしながら味のふくらみのあるお料理との相性が抜群です！</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/12579.jpg</t>
+          <t>https://www.af-1.jp/bottle/12302.jpg</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4933,16 +5039,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 夢ささら 生</t>
+          <t>紀土 純米大吟醸 shibata's be cool</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 夢ささら 生 1.8L</t>
+          <t>紀土 純米大吟醸 shibata's be cool 720ml</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>12579</v>
+        <v>12303</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4951,7 +5057,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4971,12 +5077,11 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>栃木県産の「夢ささら」
-で醸された上品な芳醇酒</t>
+          <t>今年の夏はshibataで乗り切れ！</t>
         </is>
       </c>
       <c r="L55" t="b">
@@ -4995,15 +5100,19 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2018年に栃木県で開発された「夢ささら」で醸された純米大吟醸酒。
- 精米歩合は40％とよく磨かれており、果実の甘み、果実のジューシー感があります。
-「夢ささら」は大吟醸向きの酒米で、開発までに要した時間はなんと13年。
- 現在では県内の酒蔵のみの使用に限られている珍しい酒米となっています。次はいつの入荷となるか分からない限定品、お試し下さい。</t>
+          <t>山田錦を50％精米歩合して仕込んだ純米大吟醸の中から、柴田杜氏が夏用に厳選した日本酒「shibata's be cool！」。
+洋梨やライチを思わせる透き通るような香りを感じます。
+爽やかな微発砲と相まって、上品な甘みと酸味を堪能できる暑い季節にぴったりな純米大吟醸酒。
+そんな「紀土 Shibata's be cool！」にオススメのお料理は、
+・鮎の塩焼き
+・ハモの天婦羅
+・焼きナス
+など、さっぱりとしながら味のふくらみのあるお料理との相性が抜群です！</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/12579.jpg</t>
+          <t>https://www.af-1.jp/bottle/12302.jpg</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -5015,16 +5124,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 黒判 生酒</t>
+          <t>紀土 純米大吟醸 宙へ MOMO7号記念酒</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 黒判 生酒 720ml</t>
+          <t>紀土 純米大吟醸 宙へ MOMO7号記念酒 1.8L</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>12584</v>
+        <v>12276</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5033,7 +5142,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5053,12 +5162,11 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve">銘酒「鳳凰美田 黒判」
-「無濾過本生」で復活！！ </t>
+          <t>祝！！紀土燃料ロケット打ち上げ成功！！</t>
         </is>
       </c>
       <c r="L56" t="b">
@@ -5077,22 +5185,22 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>8年前まで限られた特約店のみで取扱いをしていた銘酒「鳳凰美田　黒判」。ファンの間では“鳳凰美田・最強”と呼ばれる逸品でしたが、近年の原料米の高騰など様々な理由から、惜しまれつつも終売となっていました。
-昨年、公式Instagaram フォロワー１万人突破記念酒として限定発売された「復刻版　黒判」。その登場に業界全体が沸き上がり、リリースと同時に予約が殺到、締め切り後も問い合わせや再入荷の依頼が多数寄せられました。
-その「鳳凰美田　黒判」が今回は「無濾過本生」で復活！！
- 完全予約制、100%受注生産です。
-新型コロナウィルスの影響で、今まで築き信じてきた、流通や価値観、様々な仕組みが思うようにいかない昨今。
-“皆様と共に、少しでも気持ちを前向きに！”
- “明るい日々を過ごせるように！ ”
- “思考を止めず自分たちの役割を伝えたい！”
-今回の「黒判復活」には、小林酒造からのそのような願いが強くつよく込められています。
-　山田錦を45％精米。「自社鑑評会用酵母」を使用し、手間暇掛けて丁寧に醸されたハイスペックなお酒。その味わいはうっとりするほど芳醇で、無濾過本生ならではの溢れ出るようなジューシーな果実味。華やかに咲き乱れるような吟醸香。上品に揺らめく果実様の甘み。鳳凰美田ならではの旨味・・・。
- 「黒判」の復刻企画「BLACKALABELプロジェクト」も残念ながら今回で完結。逃すと二度とお目に掛ることのできない希少酒でもあることから、ご予約お問い合わせも大変多いことが予想されます。生産予定数量に達し次第終了。ご予約は是非お早めにどうぞ！！</t>
+          <t>2021年7月3日、世界で初めて日本酒を燃料の一部としたロケットの打ち上げに成功！！その記念として「紀土　純米大吟醸　宙へ！！~ MOMO7号機 宇宙到達記念酒~」がリリースです！
+味わいは、フルーティーで山田錦らしい旨味たっぷり、キレ良しの美酒です。
+日本酒を、宇宙へ。2019年に始まった挑戦。
+民間で国内初の宇宙空間への打ち上げに成功したインターステラテクノロジズ(IST）や堀江貴文氏の宇宙への情熱に強く共感し支援するため、「紀土 純米大吟醸 宙へ!!」は生まれました。
+2021年7月3日、これと同じスペックの紀土が燃料として一部使用されたMOMO7号機が、宇宙空間に到達し打ち上げ大成功。
+紀土が世界で初めて、宇宙に行くロケットに使われたお酒となりました。
+国産ロケットだから国産の燃料を一部使用したい。
+そうした想いから生まれた日本酒というローテクが、ロケットというハイテクと協力し合う夢のコラボレーション。
+「こうして大団円を迎えられたのも、IST社様のロケット事業への情熱、そして皆様の応援があってこそだと思います。本当にありがとうございました。」
+蔵元からの感謝の気持ちがギュッと詰まった「紀土　純米大吟醸　宙へ！！~ MOMO7号機 宇宙到達記念酒~」。
+宇宙への到達を皆で祝いましょう！ さあ！ 紀土（きっど）！ 宙へ！</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/12584.jpg</t>
+          <t>https://www.af-1.jp/bottle/12276.jpg</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -5104,16 +5212,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>鳳凰美田 酒未来</t>
+          <t>紀土 純米大吟醸 宙へ MOMO7号記念酒</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>鳳凰美田 酒未来 720ml</t>
+          <t>紀土 純米大吟醸 宙へ MOMO7号記念酒　720ml</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>12654</v>
+        <v>12277</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5122,7 +5230,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5142,11 +5250,11 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>話題の酒米「酒未来」で醸された限定の無濾過生酒！</t>
+          <t>祝！！紀土燃料ロケット打ち上げ成功！！</t>
         </is>
       </c>
       <c r="L57" t="b">
@@ -5165,35 +5273,43 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>山形県産酒未来100％使用、磨き50％の純米大吟醸です。
- 酒未来という酒米は、かの有名な日本酒「十四代」の高木酒造が生み出した
-比較的新しい品種。日本酒好きの間では話題のお米です。
-今回鳳凰美田では酒未来を生もと造りで醸造。
- 若さを感じる清々しい新緑のような吟醸香、そして酒未来らしくジューシーでありつつもクリーミーで優しい余韻が楽しめます。
-2020年6月に飲食店専用で販売され認知されたこの商品。
- 今回数量限定ではありますが、「無濾過生酒」として特別に一般販売されることになりました。ぜひこの機会に鳳凰美田が醸す「酒未来」をお試し下さい！</t>
+          <t>2021年7月3日、世界で初めて日本酒を燃料の一部としたロケットの打ち上げに成功！！その記念として「紀土　純米大吟醸　宙へ！！~ MOMO7号機 宇宙到達記念酒~」がリリースです！
+味わいは、フルーティーで山田錦らしい旨味たっぷり、キレ良しの美酒です。
+日本酒を、宇宙へ。2019年に始まった挑戦。
+民間で国内初の宇宙空間への打ち上げに成功したインターステラテクノロジズ(IST）や堀江貴文氏の宇宙への情熱に強く共感し支援するため、「紀土 純米大吟醸 宙へ!!」は生まれました。
+2021年7月3日、これと同じスペックの紀土が燃料として一部使用されたMOMO7号機が、宇宙空間に到達し打ち上げ大成功。
+紀土が世界で初めて、宇宙に行くロケットに使われたお酒となりました。
+国産ロケットだから国産の燃料を一部使用したい。
+そうした想いから生まれた日本酒というローテクが、ロケットというハイテクと協力し合う夢のコラボレーション。
+「こうして大団円を迎えられたのも、IST社様のロケット事業への情熱、そして皆様の応援があってこそだと思います。本当にありがとうございました。」
+蔵元からの感謝の気持ちがギュッと詰まった「紀土　純米大吟醸　宙へ！！~ MOMO7号機 宇宙到達記念酒~」。
+宇宙への到達を皆で祝いましょう！ さあ！ 紀土（きっど）！ 宙へ！</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/12654.jpg</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/12276.jpg</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>純米大吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>鳳凰美田 純大吟 酒未来 SAKE FUTURE 火入</t>
+          <t>本紀土 純米大吟醸</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>鳳凰美田 純大吟 酒未来 SAKE FUTURE 火入 720ml</t>
+          <t>本紀土 純米大吟醸 1.8L</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10486</v>
+        <v>10337</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5202,7 +5318,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5222,11 +5338,12 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>清々しい新緑のような吟醸香！日本酒の輝く未来を願って！</t>
+          <t>旨さ華やかさそのまま！
+美しい低アル純米大吟醸！</t>
         </is>
       </c>
       <c r="L58" t="b">
@@ -5245,32 +5362,42 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>山形県産酒未来100％使用、磨き50％の純米大吟醸です。
- 酒未来という酒米は、かの有名な日本酒「十四代」の高木酒造が生み出した比較的新しい品種。日本酒好きの間では話題のお米です。今回鳳凰美田では酒未来を生もと造りで醸造。
-若さを感じる清々しい新緑のような吟醸香、そして酒未来らしくジューシーでありつつもクリーミーで優しい余韻が楽しめます。
-2020年6月に飲食店専用で販売され認知されたこの商品。今回は特別に数量限定ではございますが、いろいろなお客様に「酒未来」の素晴らしさを体験して頂きたいと、一般販売されることになりました。</t>
+          <t>その柔らかな飲み口と優しい味わいから世界的人気を博す『紀土』。
+そんな紀土が送り出す低アルコールのラインナップ『本紀土』からついに純米大吟醸が登場です。
+通常の紀土と同様、山田錦を50％まで精米して醸されています。
+本紀土の『本』は、本マグロや本わさびと言った言葉に使われているような、物事の本質を意味し、紀土の考えるこれからの日本酒の新しい姿、日本酒本来の旨さを幅広い人に愉しんでもらえるようにという思いが込められているそう。
+今までの紀土との大きな違いはそのアルコール度数。
+13度と日本酒にしては非常に低アルコールの設計です。
+2種類の酵母をブレンドすることで、控え目ながらも華やかな純米大吟醸らしい香りを生み出し、お酒全体のバランスを大事にして仕上げられています。
+より優しく柔らかく、親しみやすい飲み心地で、紀土の仕込み水の柔らかさや清らかさ、綺麗な水を表現した本紀土の純米大吟醸。
+ただ綺麗で低アルコールというだけではなく、しっかりと紀土ならではといえる柔らかな甘みや味わいの膨らみ。後味にスッとキレるシャープさも持ち合わせ、紀土らしい魅力、さらには日本酒の魅力がしっかりと詰まっています。
+日頃あまり日本酒を飲まない方、いつもの日本酒のアルコール度数は少しキツイ、という方に特におすすめの一本です。</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10486.jpg</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/10337.jpg</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>純米大吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>鳳凰美田 荒押合併 40％ かすみ無濾過生</t>
+          <t xml:space="preserve">	本紀土 純米大吟醸</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>鳳凰美田 荒押合併 40％ かすみ無濾過生 1.8L</t>
+          <t xml:space="preserve">	本紀土 純米大吟醸 720ml</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10471</v>
+        <v>10338</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5279,7 +5406,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5299,12 +5426,12 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>3400</v>
+        <v>1550</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>特別に蔵出しされた「幻の逸品」！
- 貴重な部分をブレンドした絶品酒</t>
+          <t>旨さ華やかさそのまま！
+美しい低アル純米大吟醸！</t>
         </is>
       </c>
       <c r="L59" t="b">
@@ -5323,44 +5450,49 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>山田錦使用、磨き40％の純米大吟醸のかすみ無濾過生原酒のご紹介です。
- 「荒走り」、「押切り」というお酒を絞る過程で特に貴重な部分ををブレンドした絶品酒。「コロナ禍に少しでも皆様のお役に立てば・・・」という蔵からのご厚意で、このハイスペックなお酒が類を見ない低価格での販売。
-ちなみに「荒走り」とは日本酒を絞ったときに1番初めに出てくるお酒のこと。
-その味わいは華やかさとインパクトがあり、エネルギーに満ちた味わいです。
-そして「押切り」は別名「責め」とも呼ばれ、絞りの後半部分のお酒のこと。 押切りをブレンドすることにより、「綺麗なだけ」に収まらず、奥行きやボリューム感、何とも言えない深みが加わります。</t>
+          <t>その柔らかな飲み口と優しい味わいから世界的人気を博す『紀土』。
+そんな紀土が送り出す低アルコールのラインナップ『本紀土』からついに純米大吟醸が登場です。
+通常の紀土と同様、山田錦を50％まで精米して醸されています。
+本紀土の『本』は、本マグロや本わさびと言った言葉に使われているような、物事の本質を意味し、紀土の考えるこれからの日本酒の新しい姿、日本酒本来の旨さを幅広い人に愉しんでもらえるようにという思いが込められているそう。
+今までの紀土との大きな違いはそのアルコール度数。
+13度と日本酒にしては非常に低アルコールの設計です。
+2種類の酵母をブレンドすることで、控え目ながらも華やかな純米大吟醸らしい香りを生み出し、お酒全体のバランスを大事にして仕上げられています。
+より優しく柔らかく、親しみやすい飲み心地で、紀土の仕込み水の柔らかさや清らかさ、綺麗な水を表現した本紀土の純米大吟醸。
+ただ綺麗で低アルコールというだけではなく、しっかりと紀土ならではといえる柔らかな甘みや味わいの膨らみ。後味にスッとキレるシャープさも持ち合わせ、紀土らしい魅力、さらには日本酒の魅力がしっかりと詰まっています。
+日頃あまり日本酒を飲まない方、いつもの日本酒のアルコール度数は少しキツイ、という方に特におすすめの一本です。</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10471.jpg</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/10337.jpg</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>純米大吟醸</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>鳳凰美田 荒押合併 40％ かすみ無濾過生</t>
+          <t>赤 紀土-KID-</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>鳳凰美田 荒押合併 40％ かすみ無濾過生 720ml</t>
+          <t>赤 紀土-KID- 1.8L</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10485</v>
+        <v>10475</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>新澤酒造</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>栃木県</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>中口</t>
@@ -5378,12 +5510,11 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>特別に蔵出しされた「幻の逸品」！
- 貴重な部分をブレンドした絶品酒</t>
+          <t>悠久の紀州の風土を感じる「赤米」の酒！ 香ばしさと蜜にも感じる香りでゆったりと楽しんで</t>
         </is>
       </c>
       <c r="L60" t="b">
@@ -5402,16 +5533,18 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>山田錦使用、磨き40％の純米大吟醸のかすみ無濾過生原酒のご紹介です。
- 「荒走り」、「押切り」というお酒を絞る過程で特に貴重な部分ををブレンドした絶品酒。「コロナ禍に少しでも皆様のお役に立てば・・・」という蔵からのご厚意で、このハイスペックなお酒が類を見ない低価格での販売。
-ちなみに「荒走り」とは日本酒を絞ったときに1番初めに出てくるお酒のこと。
-その味わいは華やかさとインパクトがあり、エネルギーに満ちた味わいです。
-そして「押切り」は別名「責め」とも呼ばれ、絞りの後半部分のお酒のこと。 押切りをブレンドすることにより、「綺麗なだけ」に収まらず、奥行きやボリューム感、何とも言えない深みが加わります。</t>
+          <t>悠久の紀州の風土を感じてもらいたい…先史時代に日本に伝来した当時の姿を残す
+「赤米」を用いて醸した「赤紀土」が登場です!
+蔵が位置する和歌山県北部、東方に高野山を頂く海南市溝ノ口。
+周辺には縄文末期から弥生、室町など様々な時代の人の営みを残した溝ノ口遺跡が存在しており、古くから稲作、そして酒造りが盛んな地域でした。この故郷のルーツに着目し作られたのが今回の『赤紀土』。
+「赤米」はタンニン系赤色素をもつ古代米の一種。縄文時代に日本に最初に伝わった稲とされ、アントシアニンをはじめとするポリフェノールやビタミン、ミネラルが多く含まれる栄養素豊富な米です。この米が持つタンニンのエグ味は抑えつつ、バランスの良い美しい赤いお酒が醸されました。
+紀土らしい飲み飽きのしない軽快さ。赤米による香ばしさや蜜にも感じる香り、奥行きがあり、ゆったりとした余韻を感じられる味わい。
+多くの方にぜひご賞味いただきたい、紀土最新、期待の定番商品です。</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10471.jpg</t>
+          <t>https://www.af-1.jp/bottle/10475.jpg</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -5419,27 +5552,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米大吟醸 磨き五割 生</t>
+          <t>赤 紀土-KID-</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>鳳凰美田　純米大吟醸　磨き五割　生　1.8L</t>
+          <t>赤 紀土-KID- 720ml</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10643</v>
+        <v>10476</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>新澤酒造</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>栃木県</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>中口</t>
@@ -5457,11 +5586,11 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>豊潤で優しい吟醸香と柔らかな口当たり！鳳凰美田人気の定番酒！！</t>
+          <t>悠久の紀州の風土を感じる「赤米」の酒！ 香ばしさと蜜にも感じる香りでゆったりと楽しんで</t>
         </is>
       </c>
       <c r="L61" t="b">
@@ -5480,35 +5609,35 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t xml:space="preserve">酒造好適米の「山田錦」を100％使用。精米歩合50％まで磨きあげ、低温でじっくりと醸した純米大吟醸【生酒】です。
-慎ましくも上品に広がるマスカットのような吟醸香。口に含むと透明度の高い上質な旨味がスッと舌に馴染み、甘みがじんわりと染みていきます。酒米の王の名を冠する山田錦らしい幅のある豊かな味わいです。このスペックが3,000円で手に入るなんてことは然う然うございません。食との相性も良いので、一家に一本常備しておきたい旨酒といえるでしょう！
-</t>
+          <t>悠久の紀州の風土を感じてもらいたい…先史時代に日本に伝来した当時の姿を残す
+「赤米」を用いて醸した「赤紀土」が登場です!
+蔵が位置する和歌山県北部、東方に高野山を頂く海南市溝ノ口。
+周辺には縄文末期から弥生、室町など様々な時代の人の営みを残した溝ノ口遺跡が存在しており、古くから稲作、そして酒造りが盛んな地域でした。この故郷のルーツに着目し作られたのが今回の『赤紀土』。
+「赤米」はタンニン系赤色素をもつ古代米の一種。縄文時代に日本に最初に伝わった稲とされ、アントシアニンをはじめとするポリフェノールやビタミン、ミネラルが多く含まれる栄養素豊富な米です。この米が持つタンニンのエグ味は抑えつつ、バランスの良い美しい赤いお酒が醸されました。
+紀土らしい飲み飽きのしない軽快さ。赤米による香ばしさや蜜にも感じる香り、奥行きがあり、ゆったりとした余韻を感じられる味わい。
+多くの方にぜひご賞味いただきたい、紀土最新、期待の定番商品です。</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10643.jpg</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>純米大吟醸</t>
-        </is>
-      </c>
+          <t>https://www.af-1.jp/bottle/10475.jpg</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 日光 火入</t>
+          <t>本紀土 純米酒</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>鳳凰美田　純米吟醸　日光　火入　720ml</t>
+          <t>本紀土 純米酒 1.8L</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10500</v>
+        <v>13399</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5517,7 +5646,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5537,12 +5666,11 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1818</v>
+        <v>2300</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>【世界遺産「日光」の水】がテーマ。
-大反響を呼んだ「日光」の火入れが登場！</t>
+          <t>和歌山の清らかな水を感じて！ 柔らかな甘みと美しい酸味がしっかり</t>
         </is>
       </c>
       <c r="L62" t="b">
@@ -5561,40 +5689,37 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2021年早春、待望のリリースを遂げた「鳳凰美田 日光 生酒」。
-小林酒造が日光の源泉水源を確保し、【世界遺産「日光」の水】をテーマに4年の歳月を掛け造り上げられました。
-予想をはるかに上回るご予約を受け、限定販売された希少なお酒。今回は火入れでご紹介します。
-日光水系の超軟水の美しい源泉水を仕込水とし、酒米はその水で育まれた栃木県産
-「夢ささら」を使用。
-蔵の「日光の魅力を皆様にお届けしたい」という長年の願い通り、日光の魅力がたっぷりと詰まっています。
-日光の雄大な自然と農、蔵が一つとなり、この厳しくも恵まれたテロワールでなければ表現できない、清廉で瑞々しい、生?造りの純米吟醸酒です。
-小林酒造だからこそできる、日光の荘厳な空気と息遣い、自然の魅力を存分に引き出した味わいをぜひご堪能ください。</t>
+          <t>柔らかな飲み口と優しい味わいから世界的人気を博す『紀土』。
+そんな紀土の新ラインナップ『本紀土』から、純米酒のご紹介です。
+本紀土の『本』は、本マグロや本わさびと言った言葉に使われているような、物事の本質を意味し、紀土の考えるこれからの日本酒の新しい姿、日本酒本来の旨さを幅広い人に愉しんでもらえるようにという思いが込められているそう。
+より優しく柔らかく、親しみやすい飲み心地で、紀土の仕込み水の柔らかさや清らかさ、綺麗な水が表現されています。
+今までの『紀土 純米酒』よりも麹の割合を多くして仕込まれ、柔らかな甘みと美しい酸味がしっかりと感じられます。度数が13度という低アルコールながらも飲み応え抜群。バランスよく飲み飽きしない味わいは、お刺身や鍋料理、焼き鳥などあっさりとした和食との相性も良く、食中酒としてもオススメの一本です。</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10500.jpg</t>
+          <t>https://www.af-1.jp/bottle/13399.jpg</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>純米吟醸</t>
+          <t>純米</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>鳳凰美田 荒押合併 35％ かすみ無濾過生</t>
+          <t>本紀土 純米酒</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>鳳凰美田 荒押合併 35％ かすみ無濾過生 720ｍｌ</t>
+          <t>本紀土 純米酒 720ml</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10470</v>
+        <v>13400</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5603,7 +5728,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5623,12 +5748,11 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2000</v>
+        <v>1150</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>特別に蔵出しされる「幻の逸品」！
-貴重な部分をブレンドした絶品酒</t>
+          <t>和歌山の清らかな水を感じて！ 柔らかな甘みと美しい酸味がしっかり</t>
         </is>
       </c>
       <c r="L63" t="b">
@@ -5647,35 +5771,37 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>山田錦使用、磨き35％の純米大吟醸のかすみ無濾過生原酒のご紹介です。
-【荒走り】、【押切り】というお酒を絞る過程で特に貴重な部分ををブレンドした絶品酒。このハイスペックなお酒が類を見ない程価格を抑えての販売。
-ちなみに【荒走り】とは日本酒を絞ったときに1番初めに出てくるお酒のこと。
-その味わいは華やかさとインパクトがあり、エネルギーに満ちた味わいです。
-そして【押切り】は別名「責め」とも呼ばれ、絞りの後半部分のお酒のこと。
-押切りをブレンドすることにより、「綺麗なだけ」に収まらず、奥行きやボリューム感、何とも言えない深みが加わります。
-こちらの商品は毎年必ず造られる訳ではなく、不規則的に醸され特別に蔵出しされる希少なお酒。次はいつ出会えるとも知れない、まさに「幻の逸品」です。</t>
+          <t>柔らかな飲み口と優しい味わいから世界的人気を博す『紀土』。
+そんな紀土の新ラインナップ『本紀土』から、純米酒のご紹介です。
+本紀土の『本』は、本マグロや本わさびと言った言葉に使われているような、物事の本質を意味し、紀土の考えるこれからの日本酒の新しい姿、日本酒本来の旨さを幅広い人に愉しんでもらえるようにという思いが込められているそう。
+より優しく柔らかく、親しみやすい飲み心地で、紀土の仕込み水の柔らかさや清らかさ、綺麗な水が表現されています。
+今までの『紀土 純米酒』よりも麹の割合を多くして仕込まれ、柔らかな甘みと美しい酸味がしっかりと感じられます。度数が13度という低アルコールながらも飲み応え抜群。バランスよく飲み飽きしない味わいは、お刺身や鍋料理、焼き鳥などあっさりとした和食との相性も良く、食中酒としてもオススメの一本です。</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10470.jpg</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/13399.jpg</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>純米</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>鳳凰美田 飛翔蔵 Anniversary</t>
+          <t>紀土 純米酒 白麹仕込み 杜氏資格保有者仕込</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>鳳凰美田 飛翔蔵 Anniversary 720ml</t>
+          <t>紀土 純米酒 白麹仕込み 杜氏資格保有者仕込 720ml</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10427</v>
+        <v>11237</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5684,7 +5810,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5704,11 +5830,12 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>鳳凰美田の新たなる始まりを祝う！今回のみの特別限定メモリアル酒！！</t>
+          <t>紀土の新境地！流行の白麹成す鮮烈な酸
+「杜氏資格保有者シリーズ」第三弾！</t>
         </is>
       </c>
       <c r="L64" t="b">
@@ -5727,35 +5854,40 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022年、創業150周年を迎えた小林酒造が新蔵『飛翔蔵』を開所されました。
-本来、この新蔵は醸造技術向上の為の研究や、技術者育成の為に使われる設備で、
-試験醸造が主となりますが、今回、開所記念として特別に新蔵で醸造した日本酒をリリース！「こちらのアニバーサリーボトルは、今回のみの出荷となる」と蔵元様も
-明言しており、特別貴重な記念の一本となっています。
-ちぎり和紙のラベルが美しく、全体の配色が紅白になっているお祝いに相応しい装い。
-新蔵で生まれる新たな鳳凰美田の味わいを、本能で素直に感じていただきたいという蔵の思いから、スペック等は一切非公開。
-是非ともお手に取って頂き、鳳凰美田の新たな1ページを祝う特別な限定酒を味わってみてください。</t>
+          <t>平和酒造にて南部杜氏資格取得者が手掛けた特別醸造酒をお届けする、平和酒造の新たな取り組み「杜氏資格保有者シリーズ」の第三弾が入荷！
+新たに挑むのは白麹を用いた酒造りです。
+この企画の中心となっているのはクラフトビール『平和クラフト』の醸造長、高木加奈子氏。純米酒に準ずる精米歩合で醸し、全国わずか1,400本限定での発売となります。
+抜栓時から通常の紀土とは異なる強い柑橘系の香り。フレッシュなグレープフルーツやオレンジのように甘みと酸を感じさせます。含むと醪由来の華やかなガス感に加え、さっぱりと瑞々しい酸味と紀土らしいジューシーな甘み。酸と甘みが織り成す余韻も大変心地よく、従来の紀土とは一線を画す味わいを楽しむことができます。
+この柑橘のような香りや、強い酸味は、白麹が生成する強いクエン酸によるもの。
+通常焼酎造りに用いられる白麹ですが、近年この特徴的な味わいが注目され、日本酒造りにも多く使用されています。
+タレなど円やかな酸味のある料理などとも相性が良く、酢豚やローストビーフ、焼き鳥などの肉料理との相性も抜群。
+紀土の描く新たな1ページを、ぜひ味わってみてください！</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10427.jpg</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/11237.jpg</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>純米</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 日光〜NIKKO〜 生</t>
+          <t>平和どぶろく 弐ノ濁</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 日光〜NIKKO〜 生 1.8L</t>
+          <t>平和どぶろく 弐ノ濁 720ml</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>10351</v>
+        <v>10846</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5764,7 +5896,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5784,11 +5916,12 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>世界遺産日光の美しさを巧みに表現した特別な鳳凰美田</t>
+          <t>白麹で醸すどぶろく！
+さっぱりと甘い新感覚</t>
         </is>
       </c>
       <c r="L65" t="b">
@@ -5807,41 +5940,34 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022年、創業150周年を迎えた小林酒造。
-小林酒造が長く使用してきた日光山系の『水』と、その水を育んだ『自然』に感謝と
-敬意を込めた新たなブランドシリーズ【日光-NIKKO-】が、2022年より本格始動。
-歴史の眠る街・日光に小林酒造が保有している水源から採取した水を原料に用い、日光のテロワールを表現した特別なシリーズです。
-日光の雄大な自然と、その土地に磨かれた超軟水の水で育った栃木の酒米「夢ささら」を使用。そして米を育てた水の源泉水を仕込水とし、あくまでも日光の大地、自然にこだわって選び抜いた原料を伝統の生もと造りで醸した、こだわりと感謝の詰まった純米吟醸酒となります。
-今回の「vintage2022」は使用酵母と仕込みを変更し、春らしい爽やかな酸味とタッチ、そしてライトな甘みが楽しめる味わい。
-「鳳凰美田」が得意とするグラスに注いでからの味わいが豊かに変化するストーリ性、グラスに注いでからも崩れにくい安定性ある酒質が感じられます。
-日光の空気、息遣いをその傍らで読み取っていた小林酒造だからこそ出来た、日光の荘厳な自然の魅力を存分に引き出した一本。
-その清らかな水を始まりとし、日光の自然、農、蔵が一体となり織りなす、この厳しくも恵まれた日光の清廉で瑞々しいテロワールを是非ご堪能下さい。</t>
+          <t>今や大人気となった日本酒・紀土を醸す平和酒造の新ラインナップ『平和どぶろく』。
+どぶろくとは、清酒と異なりもろみを濾さずに瓶詰めされた、日本酒の祖先ともいえるお酒。近年、米と米麹以外の原料を用いるなど、様々な創意工夫を凝らし従来の日本酒の枠を超えて醸造される、クラフトサケの一種として脚光を浴びています。
+「弐ノ濁」は、白麹を用いて醸造されたどぶろくです。白麹とは、通常焼酎造りに用いられる麹菌。清酒造りに用いることで、強いクエン酸を発生させ、味わいに特徴的な酸味を生みだします。この味が近年注目され、様々な蔵で使用されています。そんな白麹と、和歌山県産のにこまるを用いて醸した、さっぱりと飲めるどぶろくに仕上がっています。
+柑橘系の爽やかな香り。にこまる特有の柔らかく穏やかな甘みに、爽やかな酸味と、どぶろくならではのクリーミーさが加わり、ヨーグルトを思わせる特徴的な味わい。
+後味は軽めの余韻がふわふわと残ります。
+とにかく濃いイメージのどぶろくの印象を覆す、爽やかさ。しっかりと冷やしてゴクゴクとご賞味ください、きっと驚かれるはずです。</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10351.jpg</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>純米吟醸</t>
-        </is>
-      </c>
+          <t>https://www.af-1.jp/bottle/10846.jpg</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 日光〜NIKKO〜 生</t>
+          <t>平和どぶろく 壱ノ濁</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>鳳凰美田 純米吟醸 日光〜NIKKO〜 生 720ml</t>
+          <t>平和どぶろく 壱ノ濁 720ｍｌ</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10355</v>
+        <v>13209</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5850,7 +5976,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5870,11 +5996,12 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>世界遺産日光の美しさを巧みに表現した特別な鳳凰美田</t>
+          <t>クラフト・サケの源流!?
+シンプルで無垢などぶろく!</t>
         </is>
       </c>
       <c r="L66" t="b">
@@ -5893,41 +6020,36 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022年、創業150周年を迎えた小林酒造。
-小林酒造が長く使用してきた日光山系の『水』と、その水を育んだ『自然』に感謝と
-敬意を込めた新たなブランドシリーズ【日光-NIKKO-】が、2022年より本格始動。
-歴史の眠る街・日光に小林酒造が保有している水源から採取した水を原料に用い、日光のテロワールを表現した特別なシリーズです。
-日光の雄大な自然と、その土地に磨かれた超軟水の水で育った栃木の酒米「夢ささら」を使用。そして米を育てた水の源泉水を仕込水とし、あくまでも日光の大地、自然にこだわって選び抜いた原料を伝統の生もと造りで醸した、こだわりと感謝の詰まった純米吟醸酒となります。
-今回の「vintage2022」は使用酵母と仕込みを変更し、春らしい爽やかな酸味とタッチ、そしてライトな甘みが楽しめる味わい。
-「鳳凰美田」が得意とするグラスに注いでからの味わいが豊かに変化するストーリ性、グラスに注いでからも崩れにくい安定性ある酒質が感じられます。
-日光の空気、息遣いをその傍らで読み取っていた小林酒造だからこそ出来た、日光の荘厳な自然の魅力を存分に引き出した一本。
-その清らかな水を始まりとし、日光の自然、農、蔵が一体となり織りなす、この厳しくも恵まれた日光の清廉で瑞々しいテロワールを是非ご堪能下さい。</t>
+          <t>今や大人気となった日本酒・紀土を醸す平和酒造の新ラインナップ『平和どぶろく』。
+どぶろくとは、清酒と異なりもろみを濾さずに瓶詰めされた、日本酒の祖先ともいえるお酒。近年、米と米麹以外の原料を用いるなど、様々な創意工夫を凝らし従来の日本酒の枠を超えて醸造される、クラフトサケの一種として脚光を浴びています。
+「壱ノ濁」は、米と米麹だけを使った大変シンプルな造りの、平和どぶろくの基礎とも言える一本。使用している米は和歌山県産のにこまる。まるく大粒、さっぱりとした甘さと特有の食感が人気の食用米です。
+炊き立てのお米のような落ち着いた香りとほんのりとした甘みがあります。
+口に含むと、ぷちぷちと弾ける発酵由来のガスを感じます。
+そこから弾ける、控えめで優しい甘み、米本来の味わいやコクを感じられ、どぶろくの魅力を丁寧に教えてくれるような仕立て。
+単体でお召し上がりいただくのはもちろん、濃い味付けの料理や、揚げ物など、様々な料理とのペアリングもお楽しみ頂けます。
+新たな扉を開いてくれる一本として、ぜひいかがでしょうか。</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10351.jpg</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>純米吟醸</t>
-        </is>
-      </c>
+          <t>https://www.af-1.jp/bottle/13209.jpg</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>鳳凰美田　荒押　大吟愛山45　生酒</t>
+          <t>平和どぶろく 参ノ濁</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>鳳凰美田　荒押　大吟愛山45　生酒　1.8L</t>
+          <t>平和どぶろく 参ノ濁 720ml</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>10553</v>
+        <v>13346</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5936,7 +6058,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5956,12 +6078,12 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>貴重な部分をブレンドした幻の絶品酒！
-今回は無濾過生の「愛山」！</t>
+          <t>弾けるホップの爽快感！
+飲みやすさ抜群のNEWどぶろく！</t>
         </is>
       </c>
       <c r="L67" t="b">
@@ -5980,19 +6102,17 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>【荒走り】【押切り】という貴重な部分ををブレンドした人気の絶品酒シリーズから、今回さらに特別な「愛山」が入荷！
-ちなみに【荒走り】とは日本酒を絞ったときに1番初めに出てくるお酒のこと。
-その味わいは華やかさとインパクトがあり、エネルギーに満ちた味わいです。
-そして【押切り】は別名「責め」とも呼ばれ、絞りの後半部分のお酒のこと。
-押切りをブレンドすることにより、「綺麗なだけ」に収まらず、奥行きやボリューム感、何とも言えない深みが加わります。
-さらには、無濾過・高精米の愛山ならではの、濃密な甘みと洗練された口当たりがぐっと広がります。
-今回特別に蔵出しされた、次はいつ出会えるとも知れないまさに「幻の逸品」。
-「愛山」の美味しさを余すところなく表現した希少な味わいを、ぜひご賞味ください！</t>
+          <t>今や大人気となった日本酒・紀土を醸す平和酒造の新ラインナップ『平和どぶろく』。
+どぶろくとは、清酒と異なりもろみを濾さずに瓶詰めされた、日本酒の祖先ともいえるお酒。近年、米と米麹以外の原料を用いるなど、様々な創意工夫を凝らし従来の日本酒の枠を超えて醸造される、クラフトサケの一種として脚光を浴びています。
+参ノ濁は、平和酒造の手掛けるクラフトビール『平和クラフト』で使用するホップを原料の一部に使用。通常の日本酒と異なり、どぶろくをはじめとするクラフトサケ（その他の醸造酒）では米と米麹以外にフルーツやハーブ、スパイスといった副原料を用いることができ、それによってさまざまな個性を表現しています。
+和歌山県産の米・にこまるとホップが織り成す、まろやかな米の甘みにホップ特有の
+苦み、酸味が重なった爽やかな味わい。しっかりと弾ける炭酸、そして爽やかな後口は、まるでホワイトビールのよう。
+9％という低めのアルコール度数も相まって、爽快感たっぷりで楽しめる一本に仕上がっています。しっかりと冷やしてそのまま、またはロックで一層さっぱりといただくのもオススメです。</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10553.jpg</t>
+          <t>https://www.af-1.jp/bottle/13346.jpg</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -6000,16 +6120,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>鳳凰美田 米光BEIKO 渡舟ﾊﾞｰｼﾞｮﾝ</t>
+          <t>紀土 純米吟醸酒 杜氏資格保有者仕込</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>鳳凰美田 米光BEIKO 渡舟ﾊﾞｰｼﾞｮﾝ 720ml</t>
+          <t>紀土 純米吟醸酒 杜氏資格保有者仕込 720ml</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>10316</v>
+        <v>10298</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6018,7 +6138,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>栃木県</t>
+          <t>和歌山県</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6038,12 +6158,12 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>小林酒造の歴史を今に繋ぐ
-150周年特別限定品！『ver.渡船』</t>
+          <t>「杜氏資格保有者シリーズ」第４弾！
+冷燗旨い！飲み飽きしない食中美酒！</t>
         </is>
       </c>
       <c r="L68" t="b">
@@ -6062,108 +6182,25 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>高い人気を誇る栃木の銘酒・鳳凰美田より、創業150周年を記念して生まれた特別な商品『米光〜BEIKO〜』のご紹介です
-「米光」は小林酒造が「鳳凰美田」よりも前に醸していた、昔の代表銘柄の名前。
-創業当時の文献を基に再現して醸した超限定品です。
-小林酒造は創業者である小林米蔵が、江戸幕府の招致で新潟から日光の玄関口・美田村に移転。そこで酒造業を開いたことから歴史が始まります。
-その際、酒米として使用していたのが鳥居米（壬生米）と呼ばれた酒米。
-下野国（現在の栃木県）の壬生藩鳥居家が播磨国加東郡・美嚢郡（現在の兵庫県加東市・三木市）に所有していた領地で採れる米のことで、酒米として非常に有名でした。加東市や三木市と言えば、現在でも山田錦の特A地区として知られる土地。
-そんな歴史を写し取るべく、今回の商品の原料米には古来から存在し、山田錦へと繋がる系譜を持つ酒米・渡船2号を使用。この酒米を使用することで鳳凰美田の起源と歴史、そして現在を表現しています。
-現在とは異なる、創業当時の技法を用いて生まれた『米光〜BEIKO〜』。
-小林酒造150年の歴史を今に繋ぐ特別な一本として、長い時間に思いを馳せ、今だけの味をお楽しみいただければと思います。
-同時リリースとなる「ver.山田穂」と飲み比べいただくのもオススメです。</t>
+          <t>平和酒造にて南部杜氏資格取得者が手掛けた特別醸造酒をお届けする、平和酒造の
+新たな取り組み「杜氏資格保有者シリーズ」の第四弾が入荷しました！
+今回は、杜氏資格を保有する蔵人たちでディスカッションを重ね、田村浩貴氏を中心に『飲み飽きのしない食中酒として楽しめる純米吟醸』をコンセプトに醸造！
+口当たりは優しい甘みを感じるまろやかさ、後半では酸を感じるキレのある味わい。
+冷酒でも燗でも存分に楽しめる設計で、冷やではぶどうや梨を連想させる優しい香りとスッキリとした輪郭のある味わい。上燗〜熱燗で軽快さが際立ち、お酒が体にジンワリと染み渡る感覚が楽しめます。
+何よりのコンセプト、様々なお食事と相性よく、特に旨味や甘みが凝縮した、おでんや肉団子の甘酢あん、カワハギの煮つけなどとは抜群！
+人気シリーズ、3000本のみの限定販売です。ぜひお見逃しなく。</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>https://www.af-1.jp/bottle/10316.jpg</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>鳳凰美田 米光BEIKO 山田穂ﾊﾞｰｼﾞｮﾝ</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>鳳凰美田 米光BEIKO 山田穂ﾊﾞｰｼﾞｮﾝ 720ml</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>10317</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>新澤酒造</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>栃木県</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>中口</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>やや強い</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>普通</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>2250</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>小林酒造の歴史を今に繋ぐ
-150周年特別限定品！『ver.山田穂』</t>
-        </is>
-      </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" t="b">
-        <v>0</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>山田錦</t>
-        </is>
-      </c>
-      <c r="O69" t="b">
-        <v>1</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>高い人気を誇る栃木の銘酒・鳳凰美田より、創業150周年を記念して生まれた特別な商品『米光〜BEIKO〜』のご紹介です
-「米光」は小林酒造が「鳳凰美田」よりも前に醸していた、昔の代表銘柄の名前。
-創業当時の文献を基に再現して醸した超限定品です。
-小林酒造は創業者である小林米蔵が、江戸幕府の招致で新潟から日光の玄関口・美田村に移転。そこで酒造業を開いたことから歴史が始まります。
-その際、酒米として使用していたのが鳥居米（壬生米）と呼ばれた酒米。
-下野国（現在の栃木県）の壬生藩鳥居家が播磨国加東郡・美嚢郡（現在の兵庫県加東市・三木市）に所有していた領地で採れる米のことで、酒米として非常に有名でした。加東市や三木市と言えば、現在でも山田錦の特A地区として知られる土地。
-そんな歴史を写し取るべく、今回の商品の原料米には古来から存在し、山田錦へと繋がる系譜を持つ酒米・山田穂を使用。この酒米を使用することで鳳凰美田の起源と歴史、そして現在を表現しています。
-現在とは異なる、創業当時の技法を用いて生まれた『米光〜BEIKO〜』。
-小林酒造150年の歴史を今に繋ぐ特別な一本として、長い時間に思いを馳せ、今だけの味をお楽しみいただければと思います。
-同時リリースとなる「ver.渡船」と飲み比べいただくのもオススメです。</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>https://www.af-1.jp/bottle/10317.jpg</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr"/>
+          <t>https://www.af-1.jp/bottle/10298.jpg</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>純米吟醸</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
